--- a/data/model_file.xlsx
+++ b/data/model_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\pypsa-za\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3F3BA2-54A7-49EA-82DD-82F177E1F26C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417DB235-309E-461B-A771-C51C43465248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">existing_eskom_stations!$A$1:$Y$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">existing_non_eskom_stations!$A$1:$AH$104</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -554,9 +555,6 @@
     <t>base</t>
   </si>
   <si>
-    <t>landfill</t>
-  </si>
-  <si>
     <t>Droogfontein Solar Power</t>
   </si>
   <si>
@@ -579,6 +577,9 @@
   </si>
   <si>
     <t>solar</t>
+  </si>
+  <si>
+    <t>other</t>
   </si>
 </sst>
 </file>
@@ -586,7 +587,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -811,7 +812,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -930,14 +931,17 @@
     <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1284,8 +1288,8 @@
   <dimension ref="A1:AG81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E66" sqref="E66"/>
+      <pane xSplit="2" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1313,13 +1317,13 @@
         <v>39</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F1" s="15" t="s">
         <v>40</v>
@@ -1328,7 +1332,7 @@
         <v>41</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I1" s="15" t="s">
         <v>55</v>
@@ -1352,7 +1356,7 @@
         <v>71</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q1" s="15" t="s">
         <v>45</v>
@@ -6138,11 +6142,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DECF5E6A-3574-43A5-9DB4-0F7019EF770D}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AH104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J84" sqref="J84"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q102" sqref="Q102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6163,21 +6168,21 @@
     <col min="25" max="26" width="15.6328125" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:34" ht="51" x14ac:dyDescent="0.35">
       <c r="B1" s="26" t="s">
         <v>39</v>
       </c>
       <c r="C1" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>178</v>
-      </c>
       <c r="E1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>40</v>
@@ -6186,7 +6191,7 @@
         <v>41</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J1" s="15" t="s">
         <v>55</v>
@@ -6210,7 +6215,7 @@
         <v>71</v>
       </c>
       <c r="Q1" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="R1" s="15" t="s">
         <v>45</v>
@@ -6240,7 +6245,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>170</v>
       </c>
@@ -6251,7 +6256,7 @@
         <v>101</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E2" s="31" t="s">
         <v>2</v>
@@ -6320,7 +6325,7 @@
         <v>21.153960000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>170</v>
       </c>
@@ -6400,7 +6405,7 @@
         <v>25.807017154113002</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>170</v>
       </c>
@@ -6480,7 +6485,7 @@
         <v>19.42878</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>170</v>
       </c>
@@ -6491,7 +6496,7 @@
         <v>101</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E5" s="35" t="s">
         <v>2</v>
@@ -6561,7 +6566,7 @@
         <v>24.01981</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>170</v>
       </c>
@@ -6641,7 +6646,7 @@
         <v>26.353794968770501</v>
       </c>
     </row>
-    <row r="7" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:34" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>170</v>
       </c>
@@ -6652,7 +6657,7 @@
         <v>101</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E7" s="35" t="s">
         <v>2</v>
@@ -6730,7 +6735,7 @@
       <c r="AG7"/>
       <c r="AH7"/>
     </row>
-    <row r="8" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:34" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>170</v>
       </c>
@@ -6741,7 +6746,7 @@
         <v>101</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E8" s="38" t="s">
         <v>2</v>
@@ -6819,7 +6824,7 @@
       <c r="AG8"/>
       <c r="AH8"/>
     </row>
-    <row r="9" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:34" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>170</v>
       </c>
@@ -6907,7 +6912,7 @@
       <c r="AG9"/>
       <c r="AH9"/>
     </row>
-    <row r="10" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:34" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>170</v>
       </c>
@@ -6918,7 +6923,7 @@
         <v>101</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E10" s="38" t="s">
         <v>2</v>
@@ -6996,7 +7001,7 @@
       <c r="AG10"/>
       <c r="AH10"/>
     </row>
-    <row r="11" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:34" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>170</v>
       </c>
@@ -7084,7 +7089,7 @@
       <c r="AG11"/>
       <c r="AH11"/>
     </row>
-    <row r="12" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:34" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>170</v>
       </c>
@@ -7168,7 +7173,7 @@
       <c r="AG12"/>
       <c r="AH12"/>
     </row>
-    <row r="13" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:34" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>170</v>
       </c>
@@ -7179,7 +7184,7 @@
         <v>101</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E13" s="35" t="s">
         <v>2</v>
@@ -7257,7 +7262,7 @@
       <c r="AG13"/>
       <c r="AH13"/>
     </row>
-    <row r="14" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:34" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>170</v>
       </c>
@@ -7345,7 +7350,7 @@
       <c r="AG14"/>
       <c r="AH14"/>
     </row>
-    <row r="15" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:34" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>170</v>
       </c>
@@ -7356,7 +7361,7 @@
         <v>101</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E15" s="35" t="s">
         <v>2</v>
@@ -7434,7 +7439,7 @@
       <c r="AG15"/>
       <c r="AH15"/>
     </row>
-    <row r="16" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:34" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>170</v>
       </c>
@@ -7445,7 +7450,7 @@
         <v>101</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E16" s="38" t="s">
         <v>2</v>
@@ -7523,7 +7528,7 @@
       <c r="AG16"/>
       <c r="AH16"/>
     </row>
-    <row r="17" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:34" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>170</v>
       </c>
@@ -7611,7 +7616,7 @@
       <c r="AG17"/>
       <c r="AH17"/>
     </row>
-    <row r="18" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:34" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>170</v>
       </c>
@@ -7622,7 +7627,7 @@
         <v>101</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E18" s="38" t="s">
         <v>2</v>
@@ -7700,7 +7705,7 @@
       <c r="AG18"/>
       <c r="AH18"/>
     </row>
-    <row r="19" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:34" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>170</v>
       </c>
@@ -7711,7 +7716,7 @@
         <v>101</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E19" s="35" t="s">
         <v>2</v>
@@ -7789,7 +7794,7 @@
       <c r="AG19"/>
       <c r="AH19"/>
     </row>
-    <row r="20" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:34" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
         <v>170</v>
       </c>
@@ -7877,7 +7882,7 @@
       <c r="AG20"/>
       <c r="AH20"/>
     </row>
-    <row r="21" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:34" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
         <v>170</v>
       </c>
@@ -7888,7 +7893,7 @@
         <v>101</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E21" s="35" t="s">
         <v>2</v>
@@ -7966,7 +7971,7 @@
       <c r="AG21"/>
       <c r="AH21"/>
     </row>
-    <row r="22" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:34" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>170</v>
       </c>
@@ -7977,7 +7982,7 @@
         <v>101</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E22" s="38" t="s">
         <v>2</v>
@@ -8055,18 +8060,18 @@
       <c r="AG22"/>
       <c r="AH22"/>
     </row>
-    <row r="23" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:34" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
         <v>170</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C23" s="34" t="s">
         <v>101</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E23" s="35" t="s">
         <v>2</v>
@@ -8144,7 +8149,7 @@
       <c r="AG23"/>
       <c r="AH23"/>
     </row>
-    <row r="24" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:34" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
         <v>170</v>
       </c>
@@ -8155,7 +8160,7 @@
         <v>101</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E24" s="38" t="s">
         <v>2</v>
@@ -8233,7 +8238,7 @@
       <c r="AG24"/>
       <c r="AH24"/>
     </row>
-    <row r="25" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:34" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
         <v>170</v>
       </c>
@@ -8244,7 +8249,7 @@
         <v>101</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E25" s="35" t="s">
         <v>2</v>
@@ -8322,7 +8327,7 @@
       <c r="AG25"/>
       <c r="AH25"/>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
         <v>170</v>
       </c>
@@ -8333,7 +8338,7 @@
         <v>101</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E26" s="38" t="s">
         <v>2</v>
@@ -8403,7 +8408,7 @@
         <v>29.321799172554801</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
         <v>170</v>
       </c>
@@ -8414,7 +8419,7 @@
         <v>101</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E27" s="35" t="s">
         <v>2</v>
@@ -8484,7 +8489,7 @@
         <v>20.029258108133099</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
         <v>170</v>
       </c>
@@ -8564,7 +8569,7 @@
         <v>18.307536545625499</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
         <v>170</v>
       </c>
@@ -8575,7 +8580,7 @@
         <v>101</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E29" s="35" t="s">
         <v>2</v>
@@ -8645,7 +8650,7 @@
         <v>29.450761713535101</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
         <v>170</v>
       </c>
@@ -8725,7 +8730,7 @@
         <v>26.106440829574002</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
         <v>170</v>
       </c>
@@ -8805,7 +8810,7 @@
         <v>17.9958467059943</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
         <v>170</v>
       </c>
@@ -8816,7 +8821,7 @@
         <v>102</v>
       </c>
       <c r="D32" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E32" s="38" t="s">
         <v>2</v>
@@ -8885,7 +8890,7 @@
         <v>18.4853819813383</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
         <v>170</v>
       </c>
@@ -8965,7 +8970,7 @@
         <v>21.919975876760699</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
         <v>170</v>
       </c>
@@ -8976,7 +8981,7 @@
         <v>102</v>
       </c>
       <c r="D34" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E34" s="38" t="s">
         <v>2</v>
@@ -9045,7 +9050,7 @@
         <v>25.213105911553999</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
         <v>170</v>
       </c>
@@ -9125,7 +9130,7 @@
         <v>27.879187501376201</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
         <v>170</v>
       </c>
@@ -9136,7 +9141,7 @@
         <v>102</v>
       </c>
       <c r="D36" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E36" s="38" t="s">
         <v>2</v>
@@ -9205,7 +9210,7 @@
         <v>26.330198203529498</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
         <v>170</v>
       </c>
@@ -9285,7 +9290,7 @@
         <v>19.043998428834399</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="8" t="s">
         <v>170</v>
       </c>
@@ -9365,7 +9370,7 @@
         <v>25.672221076962899</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="8" t="s">
         <v>170</v>
       </c>
@@ -9376,7 +9381,7 @@
         <v>102</v>
       </c>
       <c r="D39" s="35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E39" s="35" t="s">
         <v>2</v>
@@ -9445,7 +9450,7 @@
         <v>23.104063371285399</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="8" t="s">
         <v>170</v>
       </c>
@@ -9456,7 +9461,7 @@
         <v>102</v>
       </c>
       <c r="D40" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E40" s="38" t="s">
         <v>2</v>
@@ -9525,7 +9530,7 @@
         <v>24.441833856689101</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="8" t="s">
         <v>170</v>
       </c>
@@ -9605,7 +9610,7 @@
         <v>20.533500298364299</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="8" t="s">
         <v>170</v>
       </c>
@@ -9616,7 +9621,7 @@
         <v>102</v>
       </c>
       <c r="D42" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E42" s="38" t="s">
         <v>2</v>
@@ -9685,7 +9690,7 @@
         <v>23.015895825852599</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="8" t="s">
         <v>170</v>
       </c>
@@ -9696,7 +9701,7 @@
         <v>102</v>
       </c>
       <c r="D43" s="35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E43" s="35" t="s">
         <v>2</v>
@@ -9765,7 +9770,7 @@
         <v>24.01981</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="8" t="s">
         <v>170</v>
       </c>
@@ -9845,7 +9850,7 @@
         <v>28.4101438223705</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="8" t="s">
         <v>170</v>
       </c>
@@ -9925,7 +9930,7 @@
         <v>24.344621690645798</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8" t="s">
         <v>170</v>
       </c>
@@ -9936,7 +9941,7 @@
         <v>102</v>
       </c>
       <c r="D46" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E46" s="38" t="s">
         <v>2</v>
@@ -10005,7 +10010,7 @@
         <v>21.221905297254199</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="8" t="s">
         <v>170</v>
       </c>
@@ -10016,7 +10021,7 @@
         <v>102</v>
       </c>
       <c r="D47" s="35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E47" s="35" t="s">
         <v>2</v>
@@ -10085,7 +10090,7 @@
         <v>18.516148401131201</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="8" t="s">
         <v>170</v>
       </c>
@@ -10165,7 +10170,7 @@
         <v>26.5316768686796</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="8" t="s">
         <v>170</v>
       </c>
@@ -10245,7 +10250,7 @@
         <v>19.386264306318001</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="8" t="s">
         <v>170</v>
       </c>
@@ -10256,7 +10261,7 @@
         <v>103</v>
       </c>
       <c r="D50" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E50" s="38" t="s">
         <v>2</v>
@@ -10336,7 +10341,7 @@
         <v>103</v>
       </c>
       <c r="D51" s="35" t="s">
-        <v>171</v>
+        <v>61</v>
       </c>
       <c r="E51" s="35" t="s">
         <v>2</v>
@@ -10405,7 +10410,7 @@
         <v>28.032528400020201</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="8" t="s">
         <v>170</v>
       </c>
@@ -10485,7 +10490,7 @@
         <v>21.221905297254199</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="8" t="s">
         <v>170</v>
       </c>
@@ -10565,7 +10570,7 @@
         <v>19.441043457444799</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="8" t="s">
         <v>170</v>
       </c>
@@ -10645,7 +10650,7 @@
         <v>19.441043457444799</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="8" t="s">
         <v>170</v>
       </c>
@@ -10725,7 +10730,7 @@
         <v>24.01981</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="8" t="s">
         <v>170</v>
       </c>
@@ -10819,7 +10824,7 @@
         <v>61</v>
       </c>
       <c r="E57" s="35" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F57" s="35">
         <v>16.5</v>
@@ -10836,14 +10841,14 @@
       <c r="J57" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="K57" s="35">
-        <v>0</v>
+      <c r="K57" s="35" t="s">
+        <v>43</v>
       </c>
       <c r="L57" s="35">
         <v>1650</v>
       </c>
-      <c r="M57" s="35">
-        <v>0</v>
+      <c r="M57" s="35" t="s">
+        <v>43</v>
       </c>
       <c r="N57" s="35" t="s">
         <v>43</v>
@@ -10851,11 +10856,11 @@
       <c r="O57" s="37">
         <v>0</v>
       </c>
-      <c r="P57" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q57" s="35" t="s">
-        <v>43</v>
+      <c r="P57" s="35">
+        <v>1500</v>
+      </c>
+      <c r="Q57" s="35">
+        <v>0</v>
       </c>
       <c r="R57" s="35" t="s">
         <v>43</v>
@@ -10881,7 +10886,7 @@
         <v>32.0345129341963</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="8" t="s">
         <v>170</v>
       </c>
@@ -10892,7 +10897,7 @@
         <v>103</v>
       </c>
       <c r="D58" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E58" s="38" t="s">
         <v>2</v>
@@ -10961,7 +10966,7 @@
         <v>22.339438357413599</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="8" t="s">
         <v>170</v>
       </c>
@@ -10972,7 +10977,7 @@
         <v>103</v>
       </c>
       <c r="D59" s="35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E59" s="35" t="s">
         <v>2</v>
@@ -11041,7 +11046,7 @@
         <v>22.339438357413599</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="8" t="s">
         <v>170</v>
       </c>
@@ -11121,7 +11126,7 @@
         <v>25.807017154113002</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="8" t="s">
         <v>170</v>
       </c>
@@ -11201,7 +11206,7 @@
         <v>24.945973114014201</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="8" t="s">
         <v>170</v>
       </c>
@@ -11212,7 +11217,7 @@
         <v>103</v>
       </c>
       <c r="D62" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E62" s="38" t="s">
         <v>2</v>
@@ -11281,7 +11286,7 @@
         <v>18.895029014548101</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="8" t="s">
         <v>170</v>
       </c>
@@ -11292,7 +11297,7 @@
         <v>103</v>
       </c>
       <c r="D63" s="35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E63" s="35" t="s">
         <v>2</v>
@@ -11361,7 +11366,7 @@
         <v>24.798805920214701</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="8" t="s">
         <v>170</v>
       </c>
@@ -11441,7 +11446,7 @@
         <v>24.7416286318375</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="8" t="s">
         <v>170</v>
       </c>
@@ -11452,7 +11457,7 @@
         <v>103</v>
       </c>
       <c r="D65" s="35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E65" s="35" t="s">
         <v>2</v>
@@ -11521,7 +11526,7 @@
         <v>27.635734905913498</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="8" t="s">
         <v>170</v>
       </c>
@@ -11601,7 +11606,7 @@
         <v>23.015895825852599</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="8" t="s">
         <v>170</v>
       </c>
@@ -11681,7 +11686,7 @@
         <v>23.104063371285399</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="8" t="s">
         <v>170</v>
       </c>
@@ -11692,7 +11697,7 @@
         <v>104</v>
       </c>
       <c r="D68" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E68" s="38" t="s">
         <v>2</v>
@@ -11761,7 +11766,7 @@
         <v>18.915203100908499</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="8" t="s">
         <v>170</v>
       </c>
@@ -11772,7 +11777,7 @@
         <v>104</v>
       </c>
       <c r="D69" s="35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E69" s="35" t="s">
         <v>2</v>
@@ -11841,7 +11846,7 @@
         <v>23.7490965967927</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="8" t="s">
         <v>170</v>
       </c>
@@ -11852,7 +11857,7 @@
         <v>104</v>
       </c>
       <c r="D70" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E70" s="38" t="s">
         <v>2</v>
@@ -11921,7 +11926,7 @@
         <v>26.642110714537999</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="8" t="s">
         <v>170</v>
       </c>
@@ -12001,7 +12006,7 @@
         <v>22.339438357413599</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="8" t="s">
         <v>170</v>
       </c>
@@ -12012,7 +12017,7 @@
         <v>104</v>
       </c>
       <c r="D72" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E72" s="38" t="s">
         <v>2</v>
@@ -12081,7 +12086,7 @@
         <v>27.807654163244202</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="8" t="s">
         <v>170</v>
       </c>
@@ -12092,7 +12097,7 @@
         <v>104</v>
       </c>
       <c r="D73" s="35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E73" s="35" t="s">
         <v>2</v>
@@ -12161,7 +12166,7 @@
         <v>21.221905297254199</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="8" t="s">
         <v>170</v>
       </c>
@@ -12172,7 +12177,7 @@
         <v>104</v>
       </c>
       <c r="D74" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E74" s="38" t="s">
         <v>2</v>
@@ -12241,7 +12246,7 @@
         <v>21.221905297254199</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="8" t="s">
         <v>170</v>
       </c>
@@ -12321,7 +12326,7 @@
         <v>20.431854895634601</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="8" t="s">
         <v>170</v>
       </c>
@@ -12401,7 +12406,7 @@
         <v>22.339438357413599</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="8" t="s">
         <v>170</v>
       </c>
@@ -12481,7 +12486,7 @@
         <v>25.807017154113002</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="8" t="s">
         <v>170</v>
       </c>
@@ -12561,7 +12566,7 @@
         <v>17.8877643635381</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="8" t="s">
         <v>170</v>
       </c>
@@ -12572,7 +12577,7 @@
         <v>104</v>
       </c>
       <c r="D79" s="35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E79" s="35" t="s">
         <v>2</v>
@@ -12641,7 +12646,7 @@
         <v>19.386264306318001</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="8" t="s">
         <v>170</v>
       </c>
@@ -12721,7 +12726,7 @@
         <v>28.307683283941302</v>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="8" t="s">
         <v>170</v>
       </c>
@@ -12732,7 +12737,7 @@
         <v>104</v>
       </c>
       <c r="D81" s="35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E81" s="35" t="s">
         <v>2</v>
@@ -12832,14 +12837,14 @@
       <c r="J82" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="K82" s="38">
-        <v>0</v>
+      <c r="K82" s="38" t="s">
+        <v>43</v>
       </c>
       <c r="L82" s="38">
         <v>1650</v>
       </c>
-      <c r="M82" s="38">
-        <v>0</v>
+      <c r="M82" s="38" t="s">
+        <v>43</v>
       </c>
       <c r="N82" s="38" t="s">
         <v>43</v>
@@ -12847,11 +12852,11 @@
       <c r="O82" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="P82" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q82" s="38" t="s">
-        <v>43</v>
+      <c r="P82" s="38">
+        <v>1500</v>
+      </c>
+      <c r="Q82" s="38">
+        <v>0</v>
       </c>
       <c r="R82" s="38" t="s">
         <v>43</v>
@@ -12877,7 +12882,7 @@
         <v>30.974304836468701</v>
       </c>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="8" t="s">
         <v>170</v>
       </c>
@@ -12957,7 +12962,7 @@
         <v>25.807017154113002</v>
       </c>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="8" t="s">
         <v>170</v>
       </c>
@@ -13037,7 +13042,7 @@
         <v>24.7416286318375</v>
       </c>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="8" t="s">
         <v>170</v>
       </c>
@@ -13117,7 +13122,7 @@
         <v>20.029258108133099</v>
       </c>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="8" t="s">
         <v>170</v>
       </c>
@@ -13197,7 +13202,7 @@
         <v>20.669836490486698</v>
       </c>
     </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="8" t="s">
         <v>170</v>
       </c>
@@ -13208,7 +13213,7 @@
         <v>104</v>
       </c>
       <c r="D87" s="35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E87" s="35" t="s">
         <v>2</v>
@@ -13277,7 +13282,7 @@
         <v>21.221905297254199</v>
       </c>
     </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="8" t="s">
         <v>170</v>
       </c>
@@ -13357,7 +13362,7 @@
         <v>20.669836490486698</v>
       </c>
     </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="8" t="s">
         <v>170</v>
       </c>
@@ -13368,7 +13373,7 @@
         <v>104</v>
       </c>
       <c r="D89" s="35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E89" s="35" t="s">
         <v>11</v>
@@ -13437,7 +13442,7 @@
         <v>19.441043457444799</v>
       </c>
     </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="8" t="s">
         <v>170</v>
       </c>
@@ -13517,7 +13522,7 @@
         <v>20.669836490486698</v>
       </c>
     </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="8" t="s">
         <v>170</v>
       </c>
@@ -13528,7 +13533,7 @@
         <v>104</v>
       </c>
       <c r="D91" s="35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E91" s="35" t="s">
         <v>2</v>
@@ -13597,7 +13602,7 @@
         <v>24.7048545534144</v>
       </c>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="8" t="s">
         <v>170</v>
       </c>
@@ -13677,7 +13682,7 @@
         <v>27.429813102134101</v>
       </c>
     </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="8" t="s">
         <v>170</v>
       </c>
@@ -13688,7 +13693,7 @@
         <v>104</v>
       </c>
       <c r="D93" s="35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E93" s="35" t="s">
         <v>2</v>
@@ -13757,7 +13762,7 @@
         <v>26.082419364174601</v>
       </c>
     </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="8" t="s">
         <v>170</v>
       </c>
@@ -13765,7 +13770,7 @@
         <v>30</v>
       </c>
       <c r="C94" s="34" t="s">
-        <v>43</v>
+        <v>179</v>
       </c>
       <c r="D94" s="38" t="s">
         <v>57</v>
@@ -13843,7 +13848,7 @@
       <c r="AG94" s="4"/>
       <c r="AH94" s="4"/>
     </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" s="8" t="s">
         <v>170</v>
       </c>
@@ -13851,7 +13856,7 @@
         <v>31</v>
       </c>
       <c r="C95" s="34" t="s">
-        <v>43</v>
+        <v>179</v>
       </c>
       <c r="D95" s="35" t="s">
         <v>57</v>
@@ -13929,7 +13934,7 @@
       <c r="AG95" s="4"/>
       <c r="AH95" s="4"/>
     </row>
-    <row r="96" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="8" t="s">
         <v>170</v>
       </c>
@@ -13937,7 +13942,7 @@
         <v>66</v>
       </c>
       <c r="C96" s="34" t="s">
-        <v>43</v>
+        <v>179</v>
       </c>
       <c r="D96" s="38" t="s">
         <v>72</v>
@@ -14015,7 +14020,7 @@
       <c r="AG96" s="4"/>
       <c r="AH96" s="4"/>
     </row>
-    <row r="97" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="8" t="s">
         <v>170</v>
       </c>
@@ -14023,7 +14028,7 @@
         <v>67</v>
       </c>
       <c r="C97" s="34" t="s">
-        <v>43</v>
+        <v>179</v>
       </c>
       <c r="D97" s="35" t="s">
         <v>72</v>
@@ -14101,7 +14106,7 @@
       <c r="AG97" s="4"/>
       <c r="AH97" s="4"/>
     </row>
-    <row r="98" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" s="8" t="s">
         <v>170</v>
       </c>
@@ -14109,7 +14114,7 @@
         <v>32</v>
       </c>
       <c r="C98" s="34" t="s">
-        <v>43</v>
+        <v>179</v>
       </c>
       <c r="D98" s="38" t="s">
         <v>63</v>
@@ -14187,7 +14192,7 @@
       <c r="AG98" s="4"/>
       <c r="AH98" s="4"/>
     </row>
-    <row r="99" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="8" t="s">
         <v>170</v>
       </c>
@@ -14195,7 +14200,7 @@
         <v>33</v>
       </c>
       <c r="C99" s="34" t="s">
-        <v>43</v>
+        <v>179</v>
       </c>
       <c r="D99" s="35" t="s">
         <v>63</v>
@@ -14273,7 +14278,7 @@
       <c r="AG99" s="4"/>
       <c r="AH99" s="4"/>
     </row>
-    <row r="100" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="8" t="s">
         <v>170</v>
       </c>
@@ -14281,7 +14286,7 @@
         <v>34</v>
       </c>
       <c r="C100" s="34" t="s">
-        <v>43</v>
+        <v>179</v>
       </c>
       <c r="D100" s="38" t="s">
         <v>62</v>
@@ -14290,7 +14295,8 @@
         <v>2</v>
       </c>
       <c r="F100" s="38">
-        <v>1500</v>
+        <f>1500*1.176</f>
+        <v>1764</v>
       </c>
       <c r="G100" s="38">
         <v>250</v>
@@ -14355,7 +14361,7 @@
       <c r="AG100" s="4"/>
       <c r="AH100" s="4"/>
     </row>
-    <row r="101" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" s="8" t="s">
         <v>170</v>
       </c>
@@ -14363,7 +14369,7 @@
         <v>35</v>
       </c>
       <c r="C101" s="34" t="s">
-        <v>43</v>
+        <v>179</v>
       </c>
       <c r="D101" s="35" t="s">
         <v>62</v>
@@ -14449,7 +14455,7 @@
         <v>36</v>
       </c>
       <c r="C102" s="34" t="s">
-        <v>43</v>
+        <v>179</v>
       </c>
       <c r="D102" s="38" t="s">
         <v>61</v>
@@ -14531,7 +14537,7 @@
         <v>37</v>
       </c>
       <c r="C103" s="34" t="s">
-        <v>43</v>
+        <v>179</v>
       </c>
       <c r="D103" s="35" t="s">
         <v>61</v>
@@ -14609,15 +14615,15 @@
       <c r="AG103" s="4"/>
       <c r="AH103" s="4"/>
     </row>
-    <row r="104" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:34" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="28" t="s">
         <v>170</v>
       </c>
       <c r="B104" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C104" s="34" t="s">
-        <v>43</v>
+      <c r="C104" s="49" t="s">
+        <v>179</v>
       </c>
       <c r="D104" s="41" t="s">
         <v>60</v>
@@ -14698,6 +14704,13 @@
       <c r="AH104" s="4"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AH104" xr:uid="{DECF5E6A-3574-43A5-9DB4-0F7019EF770D}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="biomass"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data/model_file.xlsx
+++ b/data/model_file.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4339" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4336" uniqueCount="261">
   <si>
     <t xml:space="preserve">wildcard</t>
   </si>
@@ -662,9 +662,6 @@
     <t xml:space="preserve">MW</t>
   </si>
   <si>
-    <t xml:space="preserve">slow_reserves</t>
-  </si>
-  <si>
     <t xml:space="preserve">total_reserves</t>
   </si>
   <si>
@@ -906,7 +903,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -928,7 +925,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FFEBF1DE"/>
+        <bgColor rgb="FFEEEEEE"/>
       </patternFill>
     </fill>
     <fill>
@@ -940,7 +937,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDCE6F2"/>
-        <bgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFEEEEEE"/>
       </patternFill>
     </fill>
     <fill>
@@ -964,7 +961,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEBF1DE"/>
-        <bgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFEEEEEE"/>
       </patternFill>
     </fill>
     <fill>
@@ -977,6 +974,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF7F7F7F"/>
         <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEEEEE"/>
+        <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
     <fill>
@@ -1631,10 +1634,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1656,14 +1655,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="12" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1691,23 +1682,23 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="6" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="19" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="8" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="8" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="20" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="13" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="10" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="0" fillId="13" borderId="21" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="22" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1723,25 +1714,37 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="23" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="10" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="22" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="15" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="23" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="24" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="13" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="25" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="13" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="25" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="25" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="26" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
@@ -1827,7 +1830,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2010,7 +2013,7 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFB2B2B2"/>
       <rgbColor rgb="FF7F7F7F"/>
-      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FFF2F2F2"/>
       <rgbColor rgb="FF953735"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFDCE6F2"/>
@@ -2020,7 +2023,7 @@
       <rgbColor rgb="FFC6D9F1"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFF2F2F2"/>
+      <rgbColor rgb="FFEEEEEE"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -2075,7 +2078,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+      <selection pane="topLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21498,7 +21501,7 @@
   <dimension ref="A1:AF1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21736,13 +21739,13 @@
         <v>199</v>
       </c>
       <c r="D4" s="74" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E4" s="74" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="74" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G4" s="74"/>
       <c r="H4" s="74"/>
@@ -21782,13 +21785,13 @@
         <v>200</v>
       </c>
       <c r="D5" s="72" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E5" s="72" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="72" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G5" s="72"/>
       <c r="H5" s="72"/>
@@ -21907,7 +21910,7 @@
       <c r="AC7" s="74"/>
       <c r="AD7" s="74"/>
       <c r="AE7" s="74"/>
-      <c r="AF7" s="76"/>
+      <c r="AF7" s="75"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="69" t="s">
@@ -21953,7 +21956,7 @@
       <c r="AC8" s="74"/>
       <c r="AD8" s="74"/>
       <c r="AE8" s="74"/>
-      <c r="AF8" s="76"/>
+      <c r="AF8" s="75"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="69" t="s">
@@ -22080,146 +22083,146 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="77" t="s">
         <v>198</v>
       </c>
-      <c r="C10" s="79" t="s">
+      <c r="C10" s="78" t="s">
         <v>201</v>
       </c>
-      <c r="D10" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="80"/>
-      <c r="M10" s="80"/>
-      <c r="N10" s="80"/>
-      <c r="O10" s="80"/>
-      <c r="P10" s="80"/>
-      <c r="Q10" s="80"/>
-      <c r="R10" s="80"/>
-      <c r="S10" s="80"/>
-      <c r="T10" s="80"/>
-      <c r="U10" s="80"/>
-      <c r="V10" s="80"/>
-      <c r="W10" s="80"/>
-      <c r="X10" s="80"/>
-      <c r="Y10" s="80"/>
-      <c r="Z10" s="80"/>
-      <c r="AA10" s="80"/>
-      <c r="AB10" s="80"/>
-      <c r="AC10" s="80"/>
-      <c r="AD10" s="80"/>
-      <c r="AE10" s="80"/>
-      <c r="AF10" s="81"/>
+      <c r="D10" s="79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="79"/>
+      <c r="N10" s="79"/>
+      <c r="O10" s="79"/>
+      <c r="P10" s="79"/>
+      <c r="Q10" s="79"/>
+      <c r="R10" s="79"/>
+      <c r="S10" s="79"/>
+      <c r="T10" s="79"/>
+      <c r="U10" s="79"/>
+      <c r="V10" s="79"/>
+      <c r="W10" s="79"/>
+      <c r="X10" s="79"/>
+      <c r="Y10" s="79"/>
+      <c r="Z10" s="79"/>
+      <c r="AA10" s="79"/>
+      <c r="AB10" s="79"/>
+      <c r="AC10" s="79"/>
+      <c r="AD10" s="79"/>
+      <c r="AE10" s="79"/>
+      <c r="AF10" s="80"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="82" t="s">
+      <c r="B11" s="81" t="s">
         <v>202</v>
       </c>
       <c r="C11" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="83" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="83" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="83" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="83" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="83" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="83" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" s="83" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" s="83" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="83" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" s="83" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" s="83" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="83" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" s="83" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" s="83" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" s="83" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" s="83" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" s="83" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" s="83" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" s="83" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="83" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="84" t="n">
+      <c r="D11" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22227,7 +22230,7 @@
       <c r="A12" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="85" t="s">
+      <c r="B12" s="82" t="s">
         <v>202</v>
       </c>
       <c r="C12" s="71" t="s">
@@ -22344,7 +22347,7 @@
         <f aca="false">AD12</f>
         <v>0</v>
       </c>
-      <c r="AF12" s="86" t="n">
+      <c r="AF12" s="83" t="n">
         <f aca="false">AE12</f>
         <v>0</v>
       </c>
@@ -22353,133 +22356,133 @@
       <c r="A13" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="85" t="s">
+      <c r="B13" s="82" t="s">
         <v>202</v>
       </c>
       <c r="C13" s="71" t="s">
         <v>199</v>
       </c>
       <c r="D13" s="74" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E13" s="74" t="n">
         <f aca="false">D13</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="74" t="n">
         <f aca="false">E13</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G13" s="74" t="n">
         <f aca="false">F13</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H13" s="74" t="n">
         <f aca="false">G13</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I13" s="74" t="n">
         <f aca="false">H13</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J13" s="74" t="n">
         <f aca="false">I13</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="74" t="n">
         <f aca="false">J13</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L13" s="74" t="n">
         <f aca="false">K13</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="M13" s="74" t="n">
         <f aca="false">L13</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="74" t="n">
         <f aca="false">M13</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="O13" s="74" t="n">
         <f aca="false">N13</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="74" t="n">
         <f aca="false">O13</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="74" t="n">
         <f aca="false">P13</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="R13" s="74" t="n">
         <f aca="false">Q13</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="S13" s="74" t="n">
         <f aca="false">R13</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="T13" s="74" t="n">
         <f aca="false">S13</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="74" t="n">
         <f aca="false">T13</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="V13" s="74" t="n">
         <f aca="false">U13</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="W13" s="74" t="n">
         <f aca="false">V13</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X13" s="74" t="n">
         <f aca="false">W13</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="74" t="n">
         <f aca="false">X13</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="74" t="n">
         <f aca="false">Y13</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA13" s="74" t="n">
         <f aca="false">Z13</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB13" s="74" t="n">
         <f aca="false">AA13</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC13" s="74" t="n">
         <f aca="false">AB13</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD13" s="74" t="n">
         <f aca="false">AC13</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="74" t="n">
         <f aca="false">AD13</f>
-        <v>1000</v>
-      </c>
-      <c r="AF13" s="87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="84" t="n">
         <f aca="false">AE13</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="85" t="s">
+      <c r="B14" s="82" t="s">
         <v>202</v>
       </c>
       <c r="C14" s="71" t="s">
@@ -22596,7 +22599,7 @@
         <f aca="false">AD14</f>
         <v>0</v>
       </c>
-      <c r="AF14" s="86" t="n">
+      <c r="AF14" s="83" t="n">
         <f aca="false">AE14</f>
         <v>0</v>
       </c>
@@ -22605,7 +22608,7 @@
       <c r="A15" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="85" t="s">
+      <c r="B15" s="82" t="s">
         <v>202</v>
       </c>
       <c r="C15" s="71" t="s">
@@ -22722,7 +22725,7 @@
         <f aca="false">AD15</f>
         <v>0</v>
       </c>
-      <c r="AF15" s="87" t="n">
+      <c r="AF15" s="84" t="n">
         <f aca="false">AE15</f>
         <v>0</v>
       </c>
@@ -22731,7 +22734,7 @@
       <c r="A16" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="85" t="s">
+      <c r="B16" s="82" t="s">
         <v>202</v>
       </c>
       <c r="C16" s="71" t="s">
@@ -22848,7 +22851,7 @@
         <f aca="false">AD16</f>
         <v>0</v>
       </c>
-      <c r="AF16" s="86" t="n">
+      <c r="AF16" s="83" t="n">
         <f aca="false">AE16</f>
         <v>0</v>
       </c>
@@ -22857,7 +22860,7 @@
       <c r="A17" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="85" t="s">
+      <c r="B17" s="82" t="s">
         <v>202</v>
       </c>
       <c r="C17" s="71" t="s">
@@ -22974,133 +22977,133 @@
         <f aca="false">AD17</f>
         <v>0</v>
       </c>
-      <c r="AF17" s="87" t="n">
+      <c r="AF17" s="84" t="n">
         <f aca="false">AE17</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="77" t="s">
+      <c r="A18" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="88" t="s">
+      <c r="B18" s="85" t="s">
         <v>202</v>
       </c>
-      <c r="C18" s="79" t="s">
+      <c r="C18" s="78" t="s">
         <v>201</v>
       </c>
-      <c r="D18" s="80" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="80" t="n">
+      <c r="D18" s="79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="79" t="n">
         <f aca="false">D18</f>
         <v>0</v>
       </c>
-      <c r="F18" s="80" t="n">
+      <c r="F18" s="79" t="n">
         <f aca="false">E18</f>
         <v>0</v>
       </c>
-      <c r="G18" s="80" t="n">
+      <c r="G18" s="79" t="n">
         <f aca="false">F18</f>
         <v>0</v>
       </c>
-      <c r="H18" s="80" t="n">
+      <c r="H18" s="79" t="n">
         <f aca="false">G18</f>
         <v>0</v>
       </c>
-      <c r="I18" s="80" t="n">
+      <c r="I18" s="79" t="n">
         <f aca="false">H18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="80" t="n">
+      <c r="J18" s="79" t="n">
         <f aca="false">I18</f>
         <v>0</v>
       </c>
-      <c r="K18" s="80" t="n">
+      <c r="K18" s="79" t="n">
         <f aca="false">J18</f>
         <v>0</v>
       </c>
-      <c r="L18" s="80" t="n">
+      <c r="L18" s="79" t="n">
         <f aca="false">K18</f>
         <v>0</v>
       </c>
-      <c r="M18" s="80" t="n">
+      <c r="M18" s="79" t="n">
         <f aca="false">L18</f>
         <v>0</v>
       </c>
-      <c r="N18" s="80" t="n">
+      <c r="N18" s="79" t="n">
         <f aca="false">M18</f>
         <v>0</v>
       </c>
-      <c r="O18" s="80" t="n">
+      <c r="O18" s="79" t="n">
         <f aca="false">N18</f>
         <v>0</v>
       </c>
-      <c r="P18" s="80" t="n">
+      <c r="P18" s="79" t="n">
         <f aca="false">O18</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="80" t="n">
+      <c r="Q18" s="79" t="n">
         <f aca="false">P18</f>
         <v>0</v>
       </c>
-      <c r="R18" s="80" t="n">
+      <c r="R18" s="79" t="n">
         <f aca="false">Q18</f>
         <v>0</v>
       </c>
-      <c r="S18" s="80" t="n">
+      <c r="S18" s="79" t="n">
         <f aca="false">R18</f>
         <v>0</v>
       </c>
-      <c r="T18" s="80" t="n">
+      <c r="T18" s="79" t="n">
         <f aca="false">S18</f>
         <v>0</v>
       </c>
-      <c r="U18" s="80" t="n">
+      <c r="U18" s="79" t="n">
         <f aca="false">T18</f>
         <v>0</v>
       </c>
-      <c r="V18" s="80" t="n">
+      <c r="V18" s="79" t="n">
         <f aca="false">U18</f>
         <v>0</v>
       </c>
-      <c r="W18" s="80" t="n">
+      <c r="W18" s="79" t="n">
         <f aca="false">V18</f>
         <v>0</v>
       </c>
-      <c r="X18" s="80" t="n">
+      <c r="X18" s="79" t="n">
         <f aca="false">W18</f>
         <v>0</v>
       </c>
-      <c r="Y18" s="80" t="n">
+      <c r="Y18" s="79" t="n">
         <f aca="false">X18</f>
         <v>0</v>
       </c>
-      <c r="Z18" s="80" t="n">
+      <c r="Z18" s="79" t="n">
         <f aca="false">Y18</f>
         <v>0</v>
       </c>
-      <c r="AA18" s="80" t="n">
+      <c r="AA18" s="79" t="n">
         <f aca="false">Z18</f>
         <v>0</v>
       </c>
-      <c r="AB18" s="80" t="n">
+      <c r="AB18" s="79" t="n">
         <f aca="false">AA18</f>
         <v>0</v>
       </c>
-      <c r="AC18" s="80" t="n">
+      <c r="AC18" s="79" t="n">
         <f aca="false">AB18</f>
         <v>0</v>
       </c>
-      <c r="AD18" s="80" t="n">
+      <c r="AD18" s="79" t="n">
         <f aca="false">AC18</f>
         <v>0</v>
       </c>
-      <c r="AE18" s="80" t="n">
+      <c r="AE18" s="79" t="n">
         <f aca="false">AD18</f>
         <v>0</v>
       </c>
-      <c r="AF18" s="89" t="n">
+      <c r="AF18" s="86" t="n">
         <f aca="false">AE18</f>
         <v>0</v>
       </c>
@@ -23158,10 +23161,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AG43"/>
+  <dimension ref="A1:AG1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+      <selection pane="topLeft" activeCell="AA4" activeCellId="0" sqref="AA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23183,335 +23186,335 @@
       <c r="C1" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="D1" s="90" t="n">
+      <c r="D1" s="87" t="n">
         <v>2021</v>
       </c>
-      <c r="E1" s="90" t="n">
+      <c r="E1" s="87" t="n">
         <v>2022</v>
       </c>
-      <c r="F1" s="90" t="n">
+      <c r="F1" s="87" t="n">
         <f aca="false">E1+1</f>
         <v>2023</v>
       </c>
-      <c r="G1" s="90" t="n">
+      <c r="G1" s="87" t="n">
         <f aca="false">F1+1</f>
         <v>2024</v>
       </c>
-      <c r="H1" s="90" t="n">
+      <c r="H1" s="87" t="n">
         <f aca="false">G1+1</f>
         <v>2025</v>
       </c>
-      <c r="I1" s="90" t="n">
+      <c r="I1" s="87" t="n">
         <f aca="false">H1+1</f>
         <v>2026</v>
       </c>
-      <c r="J1" s="90" t="n">
+      <c r="J1" s="87" t="n">
         <f aca="false">I1+1</f>
         <v>2027</v>
       </c>
-      <c r="K1" s="90" t="n">
+      <c r="K1" s="87" t="n">
         <f aca="false">J1+1</f>
         <v>2028</v>
       </c>
-      <c r="L1" s="90" t="n">
+      <c r="L1" s="87" t="n">
         <f aca="false">K1+1</f>
         <v>2029</v>
       </c>
-      <c r="M1" s="90" t="n">
+      <c r="M1" s="87" t="n">
         <f aca="false">L1+1</f>
         <v>2030</v>
       </c>
-      <c r="N1" s="90" t="n">
+      <c r="N1" s="87" t="n">
         <f aca="false">M1+1</f>
         <v>2031</v>
       </c>
-      <c r="O1" s="90" t="n">
+      <c r="O1" s="87" t="n">
         <f aca="false">N1+1</f>
         <v>2032</v>
       </c>
-      <c r="P1" s="90" t="n">
+      <c r="P1" s="87" t="n">
         <f aca="false">O1+1</f>
         <v>2033</v>
       </c>
-      <c r="Q1" s="90" t="n">
+      <c r="Q1" s="87" t="n">
         <f aca="false">P1+1</f>
         <v>2034</v>
       </c>
-      <c r="R1" s="90" t="n">
+      <c r="R1" s="87" t="n">
         <f aca="false">Q1+1</f>
         <v>2035</v>
       </c>
-      <c r="S1" s="90" t="n">
+      <c r="S1" s="87" t="n">
         <f aca="false">R1+1</f>
         <v>2036</v>
       </c>
-      <c r="T1" s="90" t="n">
+      <c r="T1" s="87" t="n">
         <f aca="false">S1+1</f>
         <v>2037</v>
       </c>
-      <c r="U1" s="90" t="n">
+      <c r="U1" s="87" t="n">
         <f aca="false">T1+1</f>
         <v>2038</v>
       </c>
-      <c r="V1" s="90" t="n">
+      <c r="V1" s="87" t="n">
         <f aca="false">U1+1</f>
         <v>2039</v>
       </c>
-      <c r="W1" s="90" t="n">
+      <c r="W1" s="87" t="n">
         <f aca="false">V1+1</f>
         <v>2040</v>
       </c>
-      <c r="X1" s="90" t="n">
+      <c r="X1" s="87" t="n">
         <f aca="false">W1+1</f>
         <v>2041</v>
       </c>
-      <c r="Y1" s="90" t="n">
+      <c r="Y1" s="87" t="n">
         <f aca="false">X1+1</f>
         <v>2042</v>
       </c>
-      <c r="Z1" s="90" t="n">
+      <c r="Z1" s="87" t="n">
         <f aca="false">Y1+1</f>
         <v>2043</v>
       </c>
-      <c r="AA1" s="90" t="n">
+      <c r="AA1" s="87" t="n">
         <f aca="false">Z1+1</f>
         <v>2044</v>
       </c>
-      <c r="AB1" s="90" t="n">
+      <c r="AB1" s="87" t="n">
         <f aca="false">AA1+1</f>
         <v>2045</v>
       </c>
-      <c r="AC1" s="90" t="n">
+      <c r="AC1" s="87" t="n">
         <f aca="false">AB1+1</f>
         <v>2046</v>
       </c>
-      <c r="AD1" s="90" t="n">
+      <c r="AD1" s="87" t="n">
         <f aca="false">AC1+1</f>
         <v>2047</v>
       </c>
-      <c r="AE1" s="90" t="n">
+      <c r="AE1" s="87" t="n">
         <f aca="false">AD1+1</f>
         <v>2048</v>
       </c>
-      <c r="AF1" s="90" t="n">
+      <c r="AF1" s="87" t="n">
         <f aca="false">AE1+1</f>
         <v>2049</v>
       </c>
-      <c r="AG1" s="90" t="n">
+      <c r="AG1" s="87" t="n">
         <f aca="false">AF1+1</f>
         <v>2050</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="89" t="s">
         <v>205</v>
       </c>
-      <c r="D2" s="94" t="n">
+      <c r="D2" s="90" t="n">
         <v>248.3693</v>
       </c>
-      <c r="E2" s="94" t="n">
+      <c r="E2" s="90" t="n">
         <v>252.3981</v>
       </c>
-      <c r="F2" s="94" t="n">
+      <c r="F2" s="90" t="n">
         <v>256.7626</v>
       </c>
-      <c r="G2" s="94" t="n">
+      <c r="G2" s="90" t="n">
         <v>261.1271</v>
       </c>
-      <c r="H2" s="94" t="n">
+      <c r="H2" s="90" t="n">
         <v>264.3416</v>
       </c>
-      <c r="I2" s="94" t="n">
+      <c r="I2" s="90" t="n">
         <v>268.6277</v>
       </c>
-      <c r="J2" s="94" t="n">
+      <c r="J2" s="90" t="n">
         <v>272.9137</v>
       </c>
-      <c r="K2" s="94" t="n">
+      <c r="K2" s="90" t="n">
         <v>276.1282</v>
       </c>
-      <c r="L2" s="94" t="n">
+      <c r="L2" s="90" t="n">
         <v>279.8785</v>
       </c>
-      <c r="M2" s="94" t="n">
+      <c r="M2" s="90" t="n">
         <v>284.7003</v>
       </c>
-      <c r="N2" s="94" t="n">
+      <c r="N2" s="90" t="n">
         <v>287.3791</v>
       </c>
-      <c r="O2" s="94" t="n">
+      <c r="O2" s="90" t="n">
         <v>291.6651</v>
       </c>
-      <c r="P2" s="94" t="n">
+      <c r="P2" s="90" t="n">
         <v>294.8797</v>
       </c>
-      <c r="Q2" s="94" t="n">
+      <c r="Q2" s="90" t="n">
         <v>299.1657</v>
       </c>
-      <c r="R2" s="94" t="n">
+      <c r="R2" s="90" t="n">
         <v>302.3803</v>
       </c>
-      <c r="S2" s="94" t="n">
+      <c r="S2" s="90" t="n">
         <v>306.1305</v>
       </c>
-      <c r="T2" s="94" t="n">
+      <c r="T2" s="90" t="n">
         <v>309.8808</v>
       </c>
-      <c r="U2" s="94" t="n">
+      <c r="U2" s="90" t="n">
         <v>313.0954</v>
       </c>
-      <c r="V2" s="94" t="n">
+      <c r="V2" s="90" t="n">
         <v>316.3099</v>
       </c>
-      <c r="W2" s="94" t="n">
+      <c r="W2" s="90" t="n">
         <v>320.0602</v>
       </c>
-      <c r="X2" s="94" t="n">
+      <c r="X2" s="90" t="n">
         <v>323.2747</v>
       </c>
-      <c r="Y2" s="94" t="n">
+      <c r="Y2" s="90" t="n">
         <v>327.5607</v>
       </c>
-      <c r="Z2" s="94" t="n">
+      <c r="Z2" s="90" t="n">
         <v>330.2395</v>
       </c>
-      <c r="AA2" s="94" t="n">
+      <c r="AA2" s="90" t="n">
         <v>333.9898</v>
       </c>
-      <c r="AB2" s="94" t="n">
+      <c r="AB2" s="90" t="n">
         <v>337.7401</v>
       </c>
-      <c r="AC2" s="94" t="n">
+      <c r="AC2" s="90" t="n">
         <v>341.4904</v>
       </c>
-      <c r="AD2" s="94" t="n">
+      <c r="AD2" s="90" t="n">
         <v>344.7049</v>
       </c>
-      <c r="AE2" s="94" t="n">
+      <c r="AE2" s="90" t="n">
         <v>348.4552</v>
       </c>
-      <c r="AF2" s="94" t="n">
+      <c r="AF2" s="90" t="n">
         <v>351.6697</v>
       </c>
-      <c r="AG2" s="94" t="n">
+      <c r="AG2" s="91" t="n">
         <v>355.42</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="95" t="s">
+      <c r="A3" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="96" t="s">
+      <c r="B3" s="93" t="s">
         <v>206</v>
       </c>
-      <c r="C3" s="97" t="s">
+      <c r="C3" s="94" t="s">
         <v>207</v>
       </c>
-      <c r="D3" s="98" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="98" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="98" t="n">
+      <c r="D3" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="95" t="n">
         <v>-0.02</v>
       </c>
-      <c r="G3" s="98" t="n">
+      <c r="G3" s="95" t="n">
         <v>-0.02</v>
       </c>
-      <c r="H3" s="98" t="n">
+      <c r="H3" s="95" t="n">
         <v>-0.02</v>
       </c>
-      <c r="I3" s="98" t="n">
+      <c r="I3" s="95" t="n">
         <v>-0.01</v>
       </c>
-      <c r="J3" s="98" t="n">
+      <c r="J3" s="95" t="n">
         <v>-0.01</v>
       </c>
-      <c r="K3" s="98" t="n">
+      <c r="K3" s="95" t="n">
         <v>-0.01</v>
       </c>
-      <c r="L3" s="98" t="n">
+      <c r="L3" s="95" t="n">
         <v>-0.01</v>
       </c>
-      <c r="M3" s="98" t="n">
+      <c r="M3" s="95" t="n">
         <v>-0.01</v>
       </c>
-      <c r="N3" s="98" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="98" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="98" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="98" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="98" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="98" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" s="98" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" s="98" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" s="98" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" s="98" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" s="98" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="98" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="98" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="98" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="98" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="98" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="98" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="98" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="98" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="99" t="n">
+      <c r="N3" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="96" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="93" t="s">
         <v>208</v>
       </c>
-      <c r="C4" s="97" t="s">
+      <c r="C4" s="94" t="s">
         <v>209</v>
       </c>
       <c r="D4" s="38" t="n">
@@ -23610,252 +23613,143 @@
         <f aca="false">AE4</f>
         <v>800</v>
       </c>
-      <c r="AG4" s="39" t="n">
+      <c r="AG4" s="98" t="n">
         <f aca="false">AF4</f>
         <v>800</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="96" t="s">
+      <c r="B5" s="100" t="s">
         <v>210</v>
       </c>
-      <c r="C5" s="97" t="s">
+      <c r="C5" s="101" t="s">
         <v>209</v>
       </c>
-      <c r="D5" s="98" t="n">
-        <f aca="false">D6-D4</f>
-        <v>1400</v>
-      </c>
-      <c r="E5" s="98" t="n">
-        <f aca="false">E6-E4</f>
-        <v>1400</v>
-      </c>
-      <c r="F5" s="98" t="n">
-        <f aca="false">F6-F4</f>
-        <v>1400</v>
-      </c>
-      <c r="G5" s="98" t="n">
-        <f aca="false">G6-G4</f>
-        <v>1400</v>
-      </c>
-      <c r="H5" s="98" t="n">
-        <f aca="false">H6-H4</f>
-        <v>2600</v>
-      </c>
-      <c r="I5" s="98" t="n">
-        <f aca="false">I6-I4</f>
-        <v>2600</v>
-      </c>
-      <c r="J5" s="98" t="n">
-        <f aca="false">J6-J4</f>
-        <v>2600</v>
-      </c>
-      <c r="K5" s="98" t="n">
-        <f aca="false">K6-K4</f>
-        <v>2600</v>
-      </c>
-      <c r="L5" s="98" t="n">
-        <f aca="false">L6-L4</f>
-        <v>2600</v>
-      </c>
-      <c r="M5" s="98" t="n">
-        <f aca="false">M6-M4</f>
-        <v>2600</v>
-      </c>
-      <c r="N5" s="98" t="n">
-        <f aca="false">N6-N4</f>
-        <v>2600</v>
-      </c>
-      <c r="O5" s="98" t="n">
-        <f aca="false">O6-O4</f>
-        <v>2600</v>
-      </c>
-      <c r="P5" s="98" t="n">
-        <f aca="false">P6-P4</f>
-        <v>2600</v>
-      </c>
-      <c r="Q5" s="98" t="n">
-        <f aca="false">Q6-Q4</f>
-        <v>2600</v>
-      </c>
-      <c r="R5" s="98" t="n">
-        <f aca="false">R6-R4</f>
-        <v>2600</v>
-      </c>
-      <c r="S5" s="98" t="n">
-        <f aca="false">S6-S4</f>
-        <v>2600</v>
-      </c>
-      <c r="T5" s="98" t="n">
-        <f aca="false">T6-T4</f>
-        <v>2600</v>
-      </c>
-      <c r="U5" s="98" t="n">
-        <f aca="false">U6-U4</f>
-        <v>2600</v>
-      </c>
-      <c r="V5" s="98" t="n">
-        <f aca="false">V6-V4</f>
-        <v>2600</v>
-      </c>
-      <c r="W5" s="98" t="n">
-        <f aca="false">W6-W4</f>
-        <v>2600</v>
-      </c>
-      <c r="X5" s="98" t="n">
-        <f aca="false">X6-X4</f>
-        <v>2600</v>
-      </c>
-      <c r="Y5" s="98" t="n">
-        <f aca="false">Y6-Y4</f>
-        <v>2600</v>
-      </c>
-      <c r="Z5" s="98" t="n">
-        <f aca="false">Z6-Z4</f>
-        <v>2600</v>
-      </c>
-      <c r="AA5" s="98" t="n">
-        <f aca="false">AA6-AA4</f>
-        <v>2600</v>
-      </c>
-      <c r="AB5" s="98" t="n">
-        <f aca="false">AB6-AB4</f>
-        <v>2600</v>
-      </c>
-      <c r="AC5" s="98" t="n">
-        <f aca="false">AC6-AC4</f>
-        <v>2600</v>
-      </c>
-      <c r="AD5" s="98" t="n">
-        <f aca="false">AD6-AD4</f>
-        <v>2600</v>
-      </c>
-      <c r="AE5" s="98" t="n">
-        <f aca="false">AE6-AE4</f>
-        <v>2600</v>
-      </c>
-      <c r="AF5" s="98" t="n">
-        <f aca="false">AF6-AF4</f>
-        <v>2600</v>
-      </c>
-      <c r="AG5" s="99" t="n">
-        <f aca="false">AG6-AG4</f>
-        <v>2600</v>
+      <c r="D5" s="102" t="n">
+        <v>2200</v>
+      </c>
+      <c r="E5" s="102" t="n">
+        <v>2200</v>
+      </c>
+      <c r="F5" s="102" t="n">
+        <v>2200</v>
+      </c>
+      <c r="G5" s="102" t="n">
+        <v>2200</v>
+      </c>
+      <c r="H5" s="102" t="n">
+        <v>3400</v>
+      </c>
+      <c r="I5" s="102" t="n">
+        <v>3400</v>
+      </c>
+      <c r="J5" s="102" t="n">
+        <v>3400</v>
+      </c>
+      <c r="K5" s="102" t="n">
+        <v>3400</v>
+      </c>
+      <c r="L5" s="102" t="n">
+        <v>3400</v>
+      </c>
+      <c r="M5" s="102" t="n">
+        <v>3400</v>
+      </c>
+      <c r="N5" s="102" t="n">
+        <v>3400</v>
+      </c>
+      <c r="O5" s="102" t="n">
+        <v>3400</v>
+      </c>
+      <c r="P5" s="102" t="n">
+        <v>3400</v>
+      </c>
+      <c r="Q5" s="102" t="n">
+        <v>3400</v>
+      </c>
+      <c r="R5" s="102" t="n">
+        <v>3400</v>
+      </c>
+      <c r="S5" s="102" t="n">
+        <v>3400</v>
+      </c>
+      <c r="T5" s="102" t="n">
+        <v>3400</v>
+      </c>
+      <c r="U5" s="102" t="n">
+        <v>3400</v>
+      </c>
+      <c r="V5" s="102" t="n">
+        <v>3400</v>
+      </c>
+      <c r="W5" s="102" t="n">
+        <v>3400</v>
+      </c>
+      <c r="X5" s="102" t="n">
+        <v>3400</v>
+      </c>
+      <c r="Y5" s="102" t="n">
+        <v>3400</v>
+      </c>
+      <c r="Z5" s="102" t="n">
+        <v>3400</v>
+      </c>
+      <c r="AA5" s="102" t="n">
+        <v>3400</v>
+      </c>
+      <c r="AB5" s="102" t="n">
+        <v>3400</v>
+      </c>
+      <c r="AC5" s="102" t="n">
+        <v>3400</v>
+      </c>
+      <c r="AD5" s="102" t="n">
+        <v>3400</v>
+      </c>
+      <c r="AE5" s="102" t="n">
+        <v>3400</v>
+      </c>
+      <c r="AF5" s="102" t="n">
+        <v>3400</v>
+      </c>
+      <c r="AG5" s="103" t="n">
+        <v>3400</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="101" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="102" t="s">
-        <v>211</v>
-      </c>
-      <c r="C6" s="103" t="s">
-        <v>209</v>
-      </c>
-      <c r="D6" s="46" t="n">
-        <v>2200</v>
-      </c>
-      <c r="E6" s="46" t="n">
-        <v>2200</v>
-      </c>
-      <c r="F6" s="46" t="n">
-        <v>2200</v>
-      </c>
-      <c r="G6" s="46" t="n">
-        <v>2200</v>
-      </c>
-      <c r="H6" s="46" t="n">
-        <v>3400</v>
-      </c>
-      <c r="I6" s="46" t="n">
-        <v>3400</v>
-      </c>
-      <c r="J6" s="46" t="n">
-        <v>3400</v>
-      </c>
-      <c r="K6" s="46" t="n">
-        <v>3400</v>
-      </c>
-      <c r="L6" s="46" t="n">
-        <v>3400</v>
-      </c>
-      <c r="M6" s="46" t="n">
-        <v>3400</v>
-      </c>
-      <c r="N6" s="46" t="n">
-        <v>3400</v>
-      </c>
-      <c r="O6" s="46" t="n">
-        <v>3400</v>
-      </c>
-      <c r="P6" s="46" t="n">
-        <v>3400</v>
-      </c>
-      <c r="Q6" s="46" t="n">
-        <v>3400</v>
-      </c>
-      <c r="R6" s="46" t="n">
-        <v>3400</v>
-      </c>
-      <c r="S6" s="46" t="n">
-        <v>3400</v>
-      </c>
-      <c r="T6" s="46" t="n">
-        <v>3400</v>
-      </c>
-      <c r="U6" s="46" t="n">
-        <v>3400</v>
-      </c>
-      <c r="V6" s="46" t="n">
-        <v>3400</v>
-      </c>
-      <c r="W6" s="46" t="n">
-        <v>3400</v>
-      </c>
-      <c r="X6" s="46" t="n">
-        <f aca="false">W6</f>
-        <v>3400</v>
-      </c>
-      <c r="Y6" s="46" t="n">
-        <f aca="false">X6</f>
-        <v>3400</v>
-      </c>
-      <c r="Z6" s="46" t="n">
-        <f aca="false">Y6</f>
-        <v>3400</v>
-      </c>
-      <c r="AA6" s="46" t="n">
-        <f aca="false">Z6</f>
-        <v>3400</v>
-      </c>
-      <c r="AB6" s="46" t="n">
-        <f aca="false">AA6</f>
-        <v>3400</v>
-      </c>
-      <c r="AC6" s="46" t="n">
-        <f aca="false">AB6</f>
-        <v>3400</v>
-      </c>
-      <c r="AD6" s="46" t="n">
-        <f aca="false">AC6</f>
-        <v>3400</v>
-      </c>
-      <c r="AE6" s="46" t="n">
-        <f aca="false">AD6</f>
-        <v>3400</v>
-      </c>
-      <c r="AF6" s="46" t="n">
-        <f aca="false">AE6</f>
-        <v>3400</v>
-      </c>
-      <c r="AG6" s="47" t="n">
-        <f aca="false">AF6</f>
-        <v>3400</v>
-      </c>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="104"/>
+      <c r="L6" s="104"/>
+      <c r="M6" s="104"/>
+      <c r="N6" s="104"/>
+      <c r="O6" s="104"/>
+      <c r="P6" s="104"/>
+      <c r="Q6" s="104"/>
+      <c r="R6" s="104"/>
+      <c r="S6" s="104"/>
+      <c r="T6" s="104"/>
+      <c r="U6" s="104"/>
+      <c r="V6" s="104"/>
+      <c r="W6" s="104"/>
+      <c r="X6" s="104"/>
+      <c r="Y6" s="104"/>
+      <c r="Z6" s="104"/>
+      <c r="AA6" s="104"/>
+      <c r="AB6" s="104"/>
+      <c r="AC6" s="104"/>
+      <c r="AD6" s="104"/>
+      <c r="AE6" s="104"/>
+      <c r="AF6" s="104"/>
+      <c r="AG6" s="104"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="104"/>
@@ -24001,10 +23895,7 @@
       <c r="D42" s="104"/>
       <c r="E42" s="104"/>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D43" s="104"/>
-      <c r="E43" s="104"/>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -24042,7 +23933,7 @@
         <v>195</v>
       </c>
       <c r="B1" s="106" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C1" s="107" t="s">
         <v>196</v>
@@ -24069,7 +23960,7 @@
         <v>203</v>
       </c>
       <c r="K1" s="108" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24080,7 +23971,7 @@
         <v>41</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D2" s="110"/>
       <c r="E2" s="110"/>
@@ -24095,7 +23986,7 @@
         <v>0.348</v>
       </c>
       <c r="K2" s="111" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24106,7 +23997,7 @@
         <v>106</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D3" s="110"/>
       <c r="E3" s="110"/>
@@ -24117,7 +24008,7 @@
       <c r="H3" s="110"/>
       <c r="I3" s="110"/>
       <c r="J3" s="29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K3" s="111"/>
     </row>
@@ -24129,7 +24020,7 @@
         <v>72</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D4" s="110"/>
       <c r="E4" s="110"/>
@@ -24140,7 +24031,7 @@
       <c r="H4" s="110"/>
       <c r="I4" s="110"/>
       <c r="J4" s="29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K4" s="111"/>
     </row>
@@ -24152,7 +24043,7 @@
         <v>86</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D5" s="110"/>
       <c r="E5" s="110"/>
@@ -24163,7 +24054,7 @@
       <c r="H5" s="110"/>
       <c r="I5" s="110"/>
       <c r="J5" s="29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K5" s="111"/>
     </row>
@@ -24175,7 +24066,7 @@
         <v>96</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D6" s="110"/>
       <c r="E6" s="110"/>
@@ -24186,10 +24077,10 @@
       <c r="H6" s="110"/>
       <c r="I6" s="110"/>
       <c r="J6" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K6" s="111" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24197,10 +24088,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="109" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D7" s="110"/>
       <c r="E7" s="110"/>
@@ -24211,7 +24102,7 @@
       <c r="H7" s="110"/>
       <c r="I7" s="110"/>
       <c r="J7" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K7" s="111"/>
     </row>
@@ -24220,10 +24111,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="109" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D8" s="110"/>
       <c r="E8" s="110"/>
@@ -24234,7 +24125,7 @@
       <c r="H8" s="110"/>
       <c r="I8" s="110"/>
       <c r="J8" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K8" s="111"/>
     </row>
@@ -24243,10 +24134,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="109" t="s">
+        <v>220</v>
+      </c>
+      <c r="C9" s="29" t="s">
         <v>221</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>222</v>
       </c>
       <c r="D9" s="110"/>
       <c r="E9" s="110"/>
@@ -24257,7 +24148,7 @@
       <c r="H9" s="110"/>
       <c r="I9" s="110"/>
       <c r="J9" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K9" s="111"/>
     </row>
@@ -24269,7 +24160,7 @@
         <v>91</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D10" s="110"/>
       <c r="E10" s="110"/>
@@ -24280,7 +24171,7 @@
       <c r="H10" s="110"/>
       <c r="I10" s="110"/>
       <c r="J10" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K10" s="111"/>
     </row>
@@ -24292,7 +24183,7 @@
         <v>199</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D11" s="110"/>
       <c r="E11" s="110"/>
@@ -24303,10 +24194,10 @@
       <c r="H11" s="110"/>
       <c r="I11" s="110"/>
       <c r="J11" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K11" s="111" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24317,7 +24208,7 @@
         <v>41</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D12" s="110"/>
       <c r="E12" s="110"/>
@@ -24328,10 +24219,10 @@
       <c r="H12" s="110"/>
       <c r="I12" s="110"/>
       <c r="J12" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K12" s="111" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24342,7 +24233,7 @@
         <v>106</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D13" s="110"/>
       <c r="E13" s="110"/>
@@ -24353,10 +24244,10 @@
       <c r="H13" s="110"/>
       <c r="I13" s="110"/>
       <c r="J13" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K13" s="111" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24367,7 +24258,7 @@
         <v>72</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D14" s="110"/>
       <c r="E14" s="110"/>
@@ -24378,10 +24269,10 @@
       <c r="H14" s="110"/>
       <c r="I14" s="110"/>
       <c r="J14" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K14" s="111" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24389,10 +24280,10 @@
         <v>8</v>
       </c>
       <c r="B15" s="109" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D15" s="110"/>
       <c r="E15" s="110"/>
@@ -24403,7 +24294,7 @@
       <c r="H15" s="110"/>
       <c r="I15" s="110"/>
       <c r="J15" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K15" s="111"/>
     </row>
@@ -24415,7 +24306,7 @@
         <v>69</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D16" s="110"/>
       <c r="E16" s="110"/>
@@ -24426,7 +24317,7 @@
       <c r="H16" s="110"/>
       <c r="I16" s="110"/>
       <c r="J16" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K16" s="111"/>
     </row>
@@ -24438,7 +24329,7 @@
         <v>63</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D17" s="110"/>
       <c r="E17" s="110"/>
@@ -24449,7 +24340,7 @@
       <c r="H17" s="110"/>
       <c r="I17" s="110"/>
       <c r="J17" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K17" s="111"/>
     </row>
@@ -24461,7 +24352,7 @@
         <v>200</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D18" s="110"/>
       <c r="E18" s="110"/>
@@ -24472,7 +24363,7 @@
       <c r="H18" s="110"/>
       <c r="I18" s="110"/>
       <c r="J18" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K18" s="111"/>
     </row>
@@ -24484,7 +24375,7 @@
         <v>65</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D19" s="110"/>
       <c r="E19" s="110"/>
@@ -24495,7 +24386,7 @@
       <c r="H19" s="110"/>
       <c r="I19" s="110"/>
       <c r="J19" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K19" s="111"/>
     </row>
@@ -24504,10 +24395,10 @@
         <v>8</v>
       </c>
       <c r="B20" s="109" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D20" s="110"/>
       <c r="E20" s="110"/>
@@ -24518,7 +24409,7 @@
       <c r="H20" s="110"/>
       <c r="I20" s="110"/>
       <c r="J20" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K20" s="111"/>
     </row>
@@ -24527,10 +24418,10 @@
         <v>8</v>
       </c>
       <c r="B21" s="109" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D21" s="110"/>
       <c r="E21" s="110"/>
@@ -24541,7 +24432,7 @@
       <c r="H21" s="110"/>
       <c r="I21" s="110"/>
       <c r="J21" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K21" s="111"/>
     </row>
@@ -24553,7 +24444,7 @@
         <v>91</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D22" s="110"/>
       <c r="E22" s="110"/>
@@ -24564,7 +24455,7 @@
       <c r="H22" s="110"/>
       <c r="I22" s="110"/>
       <c r="J22" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K22" s="111"/>
     </row>
@@ -24576,7 +24467,7 @@
         <v>199</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D23" s="110"/>
       <c r="E23" s="110"/>
@@ -24587,7 +24478,7 @@
       <c r="H23" s="110"/>
       <c r="I23" s="110"/>
       <c r="J23" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K23" s="111"/>
     </row>
@@ -24599,7 +24490,7 @@
         <v>41</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D24" s="110"/>
       <c r="E24" s="110"/>
@@ -24610,7 +24501,7 @@
       <c r="H24" s="110"/>
       <c r="I24" s="110"/>
       <c r="J24" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K24" s="111"/>
     </row>
@@ -24622,7 +24513,7 @@
         <v>106</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D25" s="110"/>
       <c r="E25" s="110"/>
@@ -24633,7 +24524,7 @@
       <c r="H25" s="110"/>
       <c r="I25" s="110"/>
       <c r="J25" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K25" s="111"/>
     </row>
@@ -24645,7 +24536,7 @@
         <v>72</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D26" s="110"/>
       <c r="E26" s="110"/>
@@ -24656,7 +24547,7 @@
       <c r="H26" s="110"/>
       <c r="I26" s="110"/>
       <c r="J26" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K26" s="111"/>
     </row>
@@ -24665,10 +24556,10 @@
         <v>8</v>
       </c>
       <c r="B27" s="109" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D27" s="110"/>
       <c r="E27" s="110"/>
@@ -24679,7 +24570,7 @@
       <c r="H27" s="110"/>
       <c r="I27" s="110"/>
       <c r="J27" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K27" s="111"/>
     </row>
@@ -24688,10 +24579,10 @@
         <v>8</v>
       </c>
       <c r="B28" s="109" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D28" s="110"/>
       <c r="E28" s="110"/>
@@ -24702,7 +24593,7 @@
       <c r="H28" s="110"/>
       <c r="I28" s="110"/>
       <c r="J28" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K28" s="111"/>
     </row>
@@ -24711,10 +24602,10 @@
         <v>8</v>
       </c>
       <c r="B29" s="109" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D29" s="110"/>
       <c r="E29" s="110"/>
@@ -24725,7 +24616,7 @@
       <c r="H29" s="110"/>
       <c r="I29" s="110"/>
       <c r="J29" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K29" s="111"/>
     </row>
@@ -24734,10 +24625,10 @@
         <v>8</v>
       </c>
       <c r="B30" s="109" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D30" s="110"/>
       <c r="E30" s="110"/>
@@ -24748,7 +24639,7 @@
       <c r="H30" s="110"/>
       <c r="I30" s="110"/>
       <c r="J30" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K30" s="111"/>
     </row>
@@ -24760,7 +24651,7 @@
         <v>69</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D31" s="110"/>
       <c r="E31" s="110"/>
@@ -24771,7 +24662,7 @@
       <c r="H31" s="110"/>
       <c r="I31" s="110"/>
       <c r="J31" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K31" s="111"/>
     </row>
@@ -24783,7 +24674,7 @@
         <v>63</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D32" s="110"/>
       <c r="E32" s="110"/>
@@ -24794,7 +24685,7 @@
       <c r="H32" s="110"/>
       <c r="I32" s="110"/>
       <c r="J32" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K32" s="111"/>
     </row>
@@ -24806,7 +24697,7 @@
         <v>200</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D33" s="110"/>
       <c r="E33" s="110"/>
@@ -24817,7 +24708,7 @@
       <c r="H33" s="110"/>
       <c r="I33" s="110"/>
       <c r="J33" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K33" s="111"/>
     </row>
@@ -24829,7 +24720,7 @@
         <v>61</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D34" s="110"/>
       <c r="E34" s="110"/>
@@ -24840,7 +24731,7 @@
       <c r="H34" s="110"/>
       <c r="I34" s="110"/>
       <c r="J34" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K34" s="111"/>
     </row>
@@ -24852,7 +24743,7 @@
         <v>65</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D35" s="110"/>
       <c r="E35" s="110"/>
@@ -24863,7 +24754,7 @@
       <c r="H35" s="110"/>
       <c r="I35" s="110"/>
       <c r="J35" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K35" s="111"/>
     </row>
@@ -24872,10 +24763,10 @@
         <v>8</v>
       </c>
       <c r="B36" s="109" t="s">
+        <v>223</v>
+      </c>
+      <c r="C36" s="29" t="s">
         <v>224</v>
-      </c>
-      <c r="C36" s="29" t="s">
-        <v>225</v>
       </c>
       <c r="D36" s="110"/>
       <c r="E36" s="110"/>
@@ -24886,7 +24777,7 @@
       <c r="H36" s="110"/>
       <c r="I36" s="110"/>
       <c r="J36" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K36" s="111"/>
     </row>
@@ -24898,7 +24789,7 @@
         <v>96</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D37" s="110"/>
       <c r="E37" s="110"/>
@@ -24909,7 +24800,7 @@
       <c r="H37" s="110"/>
       <c r="I37" s="110"/>
       <c r="J37" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K37" s="111"/>
     </row>
@@ -24918,10 +24809,10 @@
         <v>8</v>
       </c>
       <c r="B38" s="109" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D38" s="110"/>
       <c r="E38" s="110"/>
@@ -24932,7 +24823,7 @@
       <c r="H38" s="110"/>
       <c r="I38" s="110"/>
       <c r="J38" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K38" s="111"/>
     </row>
@@ -24941,10 +24832,10 @@
         <v>8</v>
       </c>
       <c r="B39" s="109" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D39" s="110"/>
       <c r="E39" s="110"/>
@@ -24955,7 +24846,7 @@
       <c r="H39" s="110"/>
       <c r="I39" s="110"/>
       <c r="J39" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K39" s="111"/>
     </row>
@@ -24967,7 +24858,7 @@
         <v>91</v>
       </c>
       <c r="C40" s="29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D40" s="110"/>
       <c r="E40" s="110"/>
@@ -24976,7 +24867,7 @@
       <c r="H40" s="110"/>
       <c r="I40" s="110"/>
       <c r="J40" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K40" s="111"/>
     </row>
@@ -24988,7 +24879,7 @@
         <v>41</v>
       </c>
       <c r="C41" s="29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D41" s="110"/>
       <c r="E41" s="110"/>
@@ -24999,7 +24890,7 @@
       <c r="H41" s="110"/>
       <c r="I41" s="110"/>
       <c r="J41" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K41" s="111"/>
     </row>
@@ -25011,7 +24902,7 @@
         <v>106</v>
       </c>
       <c r="C42" s="29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D42" s="110"/>
       <c r="E42" s="110"/>
@@ -25022,7 +24913,7 @@
       <c r="H42" s="110"/>
       <c r="I42" s="110"/>
       <c r="J42" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K42" s="111"/>
     </row>
@@ -25034,7 +24925,7 @@
         <v>72</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D43" s="110"/>
       <c r="E43" s="110"/>
@@ -25045,7 +24936,7 @@
       <c r="H43" s="110"/>
       <c r="I43" s="110"/>
       <c r="J43" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K43" s="111"/>
     </row>
@@ -25057,7 +24948,7 @@
         <v>86</v>
       </c>
       <c r="C44" s="29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D44" s="110"/>
       <c r="E44" s="110"/>
@@ -25068,7 +24959,7 @@
       <c r="H44" s="110"/>
       <c r="I44" s="110"/>
       <c r="J44" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K44" s="111"/>
     </row>
@@ -25080,7 +24971,7 @@
         <v>63</v>
       </c>
       <c r="C45" s="29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D45" s="110"/>
       <c r="E45" s="110"/>
@@ -25091,7 +24982,7 @@
       <c r="H45" s="110"/>
       <c r="I45" s="110"/>
       <c r="J45" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K45" s="111"/>
     </row>
@@ -25100,10 +24991,10 @@
         <v>8</v>
       </c>
       <c r="B46" s="109" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C46" s="29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D46" s="110"/>
       <c r="E46" s="110"/>
@@ -25114,7 +25005,7 @@
       <c r="H46" s="110"/>
       <c r="I46" s="110"/>
       <c r="J46" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K46" s="111"/>
     </row>
@@ -25123,10 +25014,10 @@
         <v>8</v>
       </c>
       <c r="B47" s="109" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C47" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D47" s="110"/>
       <c r="E47" s="110"/>
@@ -25137,7 +25028,7 @@
       <c r="H47" s="110"/>
       <c r="I47" s="110"/>
       <c r="J47" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K47" s="111"/>
     </row>
@@ -25146,10 +25037,10 @@
         <v>8</v>
       </c>
       <c r="B48" s="109" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C48" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D48" s="110"/>
       <c r="E48" s="110"/>
@@ -25160,7 +25051,7 @@
       <c r="H48" s="110"/>
       <c r="I48" s="110"/>
       <c r="J48" s="29" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K48" s="111"/>
     </row>
@@ -25172,7 +25063,7 @@
         <v>91</v>
       </c>
       <c r="C49" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D49" s="110"/>
       <c r="E49" s="110"/>
@@ -25183,7 +25074,7 @@
       <c r="H49" s="110"/>
       <c r="I49" s="110"/>
       <c r="J49" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K49" s="111"/>
     </row>
@@ -25195,7 +25086,7 @@
         <v>199</v>
       </c>
       <c r="C50" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D50" s="110"/>
       <c r="E50" s="110"/>
@@ -25206,7 +25097,7 @@
       <c r="H50" s="110"/>
       <c r="I50" s="110"/>
       <c r="J50" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K50" s="111"/>
     </row>
@@ -25218,7 +25109,7 @@
         <v>41</v>
       </c>
       <c r="C51" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D51" s="110"/>
       <c r="E51" s="110"/>
@@ -25229,7 +25120,7 @@
       <c r="H51" s="110"/>
       <c r="I51" s="110"/>
       <c r="J51" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K51" s="111"/>
     </row>
@@ -25241,7 +25132,7 @@
         <v>106</v>
       </c>
       <c r="C52" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D52" s="110"/>
       <c r="E52" s="110"/>
@@ -25252,7 +25143,7 @@
       <c r="H52" s="110"/>
       <c r="I52" s="110"/>
       <c r="J52" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K52" s="111"/>
     </row>
@@ -25264,7 +25155,7 @@
         <v>72</v>
       </c>
       <c r="C53" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D53" s="110"/>
       <c r="E53" s="110"/>
@@ -25275,7 +25166,7 @@
       <c r="H53" s="110"/>
       <c r="I53" s="110"/>
       <c r="J53" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K53" s="111"/>
     </row>
@@ -25284,10 +25175,10 @@
         <v>8</v>
       </c>
       <c r="B54" s="109" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C54" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D54" s="110"/>
       <c r="E54" s="110"/>
@@ -25298,7 +25189,7 @@
       <c r="H54" s="110"/>
       <c r="I54" s="110"/>
       <c r="J54" s="29" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K54" s="111"/>
     </row>
@@ -25307,10 +25198,10 @@
         <v>8</v>
       </c>
       <c r="B55" s="109" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C55" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D55" s="110"/>
       <c r="E55" s="110"/>
@@ -25321,7 +25212,7 @@
       <c r="H55" s="110"/>
       <c r="I55" s="110"/>
       <c r="J55" s="29" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K55" s="111"/>
     </row>
@@ -25330,10 +25221,10 @@
         <v>8</v>
       </c>
       <c r="B56" s="109" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C56" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D56" s="110"/>
       <c r="E56" s="110"/>
@@ -25344,7 +25235,7 @@
       <c r="H56" s="110"/>
       <c r="I56" s="110"/>
       <c r="J56" s="29" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K56" s="111"/>
     </row>
@@ -25353,10 +25244,10 @@
         <v>8</v>
       </c>
       <c r="B57" s="109" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C57" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D57" s="110"/>
       <c r="E57" s="110"/>
@@ -25367,7 +25258,7 @@
       <c r="H57" s="110"/>
       <c r="I57" s="110"/>
       <c r="J57" s="29" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K57" s="111"/>
     </row>
@@ -25379,7 +25270,7 @@
         <v>69</v>
       </c>
       <c r="C58" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D58" s="110"/>
       <c r="E58" s="110"/>
@@ -25390,7 +25281,7 @@
       <c r="H58" s="110"/>
       <c r="I58" s="110"/>
       <c r="J58" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K58" s="111"/>
     </row>
@@ -25402,7 +25293,7 @@
         <v>63</v>
       </c>
       <c r="C59" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D59" s="110"/>
       <c r="E59" s="110"/>
@@ -25413,7 +25304,7 @@
       <c r="H59" s="110"/>
       <c r="I59" s="110"/>
       <c r="J59" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K59" s="111"/>
     </row>
@@ -25425,7 +25316,7 @@
         <v>200</v>
       </c>
       <c r="C60" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D60" s="110"/>
       <c r="E60" s="110"/>
@@ -25436,7 +25327,7 @@
       <c r="H60" s="110"/>
       <c r="I60" s="110"/>
       <c r="J60" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K60" s="111"/>
     </row>
@@ -25448,7 +25339,7 @@
         <v>61</v>
       </c>
       <c r="C61" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D61" s="110"/>
       <c r="E61" s="110"/>
@@ -25459,7 +25350,7 @@
       <c r="H61" s="110"/>
       <c r="I61" s="110"/>
       <c r="J61" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K61" s="111"/>
     </row>
@@ -25471,7 +25362,7 @@
         <v>65</v>
       </c>
       <c r="C62" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D62" s="110"/>
       <c r="E62" s="110"/>
@@ -25482,7 +25373,7 @@
       <c r="H62" s="110"/>
       <c r="I62" s="110"/>
       <c r="J62" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K62" s="111"/>
     </row>
@@ -25491,10 +25382,10 @@
         <v>8</v>
       </c>
       <c r="B63" s="109" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C63" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D63" s="110"/>
       <c r="E63" s="110"/>
@@ -25505,7 +25396,7 @@
       <c r="H63" s="110"/>
       <c r="I63" s="110"/>
       <c r="J63" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K63" s="111"/>
     </row>
@@ -25517,7 +25408,7 @@
         <v>96</v>
       </c>
       <c r="C64" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D64" s="110"/>
       <c r="E64" s="110"/>
@@ -25528,7 +25419,7 @@
       <c r="H64" s="110"/>
       <c r="I64" s="110"/>
       <c r="J64" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K64" s="111"/>
     </row>
@@ -25537,10 +25428,10 @@
         <v>8</v>
       </c>
       <c r="B65" s="109" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C65" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D65" s="110"/>
       <c r="E65" s="110"/>
@@ -25551,7 +25442,7 @@
       <c r="H65" s="110"/>
       <c r="I65" s="110"/>
       <c r="J65" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K65" s="111"/>
     </row>
@@ -25560,10 +25451,10 @@
         <v>8</v>
       </c>
       <c r="B66" s="109" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C66" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D66" s="110"/>
       <c r="E66" s="110"/>
@@ -25574,7 +25465,7 @@
       <c r="H66" s="110"/>
       <c r="I66" s="110"/>
       <c r="J66" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K66" s="111"/>
     </row>
@@ -25583,10 +25474,10 @@
         <v>8</v>
       </c>
       <c r="B67" s="109" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C67" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D67" s="110"/>
       <c r="E67" s="110"/>
@@ -25597,7 +25488,7 @@
       <c r="H67" s="110"/>
       <c r="I67" s="110"/>
       <c r="J67" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K67" s="111"/>
     </row>
@@ -25606,10 +25497,10 @@
         <v>8</v>
       </c>
       <c r="B68" s="109" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C68" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D68" s="110"/>
       <c r="E68" s="110"/>
@@ -25620,7 +25511,7 @@
       <c r="H68" s="110"/>
       <c r="I68" s="110"/>
       <c r="J68" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K68" s="111"/>
     </row>
@@ -25632,7 +25523,7 @@
         <v>91</v>
       </c>
       <c r="C69" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D69" s="110"/>
       <c r="E69" s="110"/>
@@ -25641,7 +25532,7 @@
       <c r="H69" s="110"/>
       <c r="I69" s="110"/>
       <c r="J69" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K69" s="111"/>
     </row>
@@ -25653,7 +25544,7 @@
         <v>199</v>
       </c>
       <c r="C70" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D70" s="110"/>
       <c r="E70" s="110"/>
@@ -25664,7 +25555,7 @@
       <c r="H70" s="110"/>
       <c r="I70" s="110"/>
       <c r="J70" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K70" s="111"/>
     </row>
@@ -25676,7 +25567,7 @@
         <v>41</v>
       </c>
       <c r="C71" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D71" s="110"/>
       <c r="E71" s="110"/>
@@ -25687,7 +25578,7 @@
       <c r="H71" s="110"/>
       <c r="I71" s="110"/>
       <c r="J71" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K71" s="111"/>
     </row>
@@ -25699,7 +25590,7 @@
         <v>106</v>
       </c>
       <c r="C72" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D72" s="110"/>
       <c r="E72" s="110"/>
@@ -25710,7 +25601,7 @@
       <c r="H72" s="110"/>
       <c r="I72" s="110"/>
       <c r="J72" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K72" s="111"/>
     </row>
@@ -25722,7 +25613,7 @@
         <v>72</v>
       </c>
       <c r="C73" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D73" s="110"/>
       <c r="E73" s="110"/>
@@ -25731,7 +25622,7 @@
       <c r="H73" s="110"/>
       <c r="I73" s="110"/>
       <c r="J73" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K73" s="111"/>
     </row>
@@ -25740,10 +25631,10 @@
         <v>8</v>
       </c>
       <c r="B74" s="109" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C74" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D74" s="110"/>
       <c r="E74" s="110"/>
@@ -25754,7 +25645,7 @@
       <c r="H74" s="110"/>
       <c r="I74" s="110"/>
       <c r="J74" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K74" s="111"/>
     </row>
@@ -25763,10 +25654,10 @@
         <v>8</v>
       </c>
       <c r="B75" s="109" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C75" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D75" s="110"/>
       <c r="E75" s="110"/>
@@ -25777,7 +25668,7 @@
       <c r="H75" s="110"/>
       <c r="I75" s="110"/>
       <c r="J75" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K75" s="111"/>
     </row>
@@ -25786,10 +25677,10 @@
         <v>8</v>
       </c>
       <c r="B76" s="109" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C76" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D76" s="110"/>
       <c r="E76" s="110"/>
@@ -25800,7 +25691,7 @@
       <c r="H76" s="110"/>
       <c r="I76" s="110"/>
       <c r="J76" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K76" s="111"/>
     </row>
@@ -25809,10 +25700,10 @@
         <v>8</v>
       </c>
       <c r="B77" s="109" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C77" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D77" s="110"/>
       <c r="E77" s="110"/>
@@ -25823,7 +25714,7 @@
       <c r="H77" s="110"/>
       <c r="I77" s="110"/>
       <c r="J77" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K77" s="111"/>
     </row>
@@ -25835,7 +25726,7 @@
         <v>69</v>
       </c>
       <c r="C78" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D78" s="110"/>
       <c r="E78" s="110"/>
@@ -25846,7 +25737,7 @@
       <c r="H78" s="110"/>
       <c r="I78" s="110"/>
       <c r="J78" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K78" s="111"/>
     </row>
@@ -25858,7 +25749,7 @@
         <v>63</v>
       </c>
       <c r="C79" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D79" s="110"/>
       <c r="E79" s="110"/>
@@ -25869,7 +25760,7 @@
       <c r="H79" s="110"/>
       <c r="I79" s="110"/>
       <c r="J79" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K79" s="111"/>
     </row>
@@ -25881,7 +25772,7 @@
         <v>200</v>
       </c>
       <c r="C80" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D80" s="110"/>
       <c r="E80" s="110"/>
@@ -25892,7 +25783,7 @@
       <c r="H80" s="110"/>
       <c r="I80" s="110"/>
       <c r="J80" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K80" s="111"/>
     </row>
@@ -25904,7 +25795,7 @@
         <v>61</v>
       </c>
       <c r="C81" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D81" s="110"/>
       <c r="E81" s="110"/>
@@ -25915,7 +25806,7 @@
       <c r="H81" s="110"/>
       <c r="I81" s="110"/>
       <c r="J81" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K81" s="111"/>
     </row>
@@ -25927,7 +25818,7 @@
         <v>65</v>
       </c>
       <c r="C82" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D82" s="110"/>
       <c r="E82" s="110"/>
@@ -25938,7 +25829,7 @@
       <c r="H82" s="110"/>
       <c r="I82" s="110"/>
       <c r="J82" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K82" s="111"/>
     </row>
@@ -25947,10 +25838,10 @@
         <v>8</v>
       </c>
       <c r="B83" s="109" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C83" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D83" s="110"/>
       <c r="E83" s="110"/>
@@ -25961,7 +25852,7 @@
       <c r="H83" s="110"/>
       <c r="I83" s="110"/>
       <c r="J83" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K83" s="111"/>
     </row>
@@ -25973,7 +25864,7 @@
         <v>96</v>
       </c>
       <c r="C84" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D84" s="110"/>
       <c r="E84" s="110"/>
@@ -25984,7 +25875,7 @@
       <c r="H84" s="110"/>
       <c r="I84" s="110"/>
       <c r="J84" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K84" s="111"/>
     </row>
@@ -25993,10 +25884,10 @@
         <v>8</v>
       </c>
       <c r="B85" s="109" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C85" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D85" s="110"/>
       <c r="E85" s="110"/>
@@ -26007,7 +25898,7 @@
       <c r="H85" s="110"/>
       <c r="I85" s="110"/>
       <c r="J85" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K85" s="111"/>
     </row>
@@ -26016,10 +25907,10 @@
         <v>8</v>
       </c>
       <c r="B86" s="109" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C86" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D86" s="110"/>
       <c r="E86" s="110"/>
@@ -26030,7 +25921,7 @@
       <c r="H86" s="110"/>
       <c r="I86" s="110"/>
       <c r="J86" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K86" s="111"/>
     </row>
@@ -26042,7 +25933,7 @@
         <v>199</v>
       </c>
       <c r="C87" s="29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D87" s="110"/>
       <c r="E87" s="110"/>
@@ -26053,7 +25944,7 @@
       <c r="H87" s="110"/>
       <c r="I87" s="110"/>
       <c r="J87" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K87" s="111"/>
     </row>
@@ -26065,7 +25956,7 @@
         <v>41</v>
       </c>
       <c r="C88" s="29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D88" s="110"/>
       <c r="E88" s="110"/>
@@ -26076,7 +25967,7 @@
       <c r="H88" s="110"/>
       <c r="I88" s="110"/>
       <c r="J88" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K88" s="111"/>
     </row>
@@ -26088,7 +25979,7 @@
         <v>106</v>
       </c>
       <c r="C89" s="29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D89" s="110"/>
       <c r="E89" s="110"/>
@@ -26099,7 +25990,7 @@
       <c r="H89" s="110"/>
       <c r="I89" s="110"/>
       <c r="J89" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K89" s="111"/>
     </row>
@@ -26111,7 +26002,7 @@
         <v>72</v>
       </c>
       <c r="C90" s="29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D90" s="110"/>
       <c r="E90" s="110"/>
@@ -26122,7 +26013,7 @@
       <c r="H90" s="110"/>
       <c r="I90" s="110"/>
       <c r="J90" s="29" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K90" s="111"/>
     </row>
@@ -26134,7 +26025,7 @@
         <v>63</v>
       </c>
       <c r="C91" s="29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D91" s="110"/>
       <c r="E91" s="110"/>
@@ -26145,7 +26036,7 @@
       <c r="H91" s="110"/>
       <c r="I91" s="110"/>
       <c r="J91" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K91" s="111"/>
     </row>
@@ -26157,7 +26048,7 @@
         <v>200</v>
       </c>
       <c r="C92" s="29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D92" s="110"/>
       <c r="E92" s="110"/>
@@ -26168,7 +26059,7 @@
       <c r="H92" s="110"/>
       <c r="I92" s="110"/>
       <c r="J92" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K92" s="111"/>
     </row>
@@ -26180,7 +26071,7 @@
         <v>61</v>
       </c>
       <c r="C93" s="29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D93" s="110"/>
       <c r="E93" s="110"/>
@@ -26191,7 +26082,7 @@
       <c r="H93" s="110"/>
       <c r="I93" s="110"/>
       <c r="J93" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K93" s="111"/>
     </row>
@@ -26203,7 +26094,7 @@
         <v>96</v>
       </c>
       <c r="C94" s="29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D94" s="110"/>
       <c r="E94" s="110"/>
@@ -26214,7 +26105,7 @@
       <c r="H94" s="110"/>
       <c r="I94" s="110"/>
       <c r="J94" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K94" s="111"/>
     </row>
@@ -26226,7 +26117,7 @@
         <v>63</v>
       </c>
       <c r="C95" s="29" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D95" s="114"/>
       <c r="E95" s="114"/>
@@ -26237,7 +26128,7 @@
       <c r="H95" s="114"/>
       <c r="I95" s="114"/>
       <c r="J95" s="29" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K95" s="111"/>
     </row>
@@ -26249,7 +26140,7 @@
         <v>41</v>
       </c>
       <c r="C96" s="116" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D96" s="117"/>
       <c r="E96" s="117"/>
@@ -26260,7 +26151,7 @@
       <c r="H96" s="117"/>
       <c r="I96" s="117"/>
       <c r="J96" s="116" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K96" s="118"/>
     </row>
@@ -26272,7 +26163,7 @@
         <v>41</v>
       </c>
       <c r="C97" s="119" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D97" s="120" t="n">
         <v>0.354</v>
@@ -26293,10 +26184,10 @@
         <v>0.354</v>
       </c>
       <c r="J97" s="119" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K97" s="121" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26308,7 +26199,7 @@
         <v>106</v>
       </c>
       <c r="C98" s="29" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D98" s="110" t="n">
         <v>0</v>
@@ -26329,10 +26220,10 @@
         <v>0</v>
       </c>
       <c r="J98" s="29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K98" s="122" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26344,7 +26235,7 @@
         <v>72</v>
       </c>
       <c r="C99" s="29" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D99" s="110" t="n">
         <v>0.248</v>
@@ -26365,10 +26256,10 @@
         <v>0.248</v>
       </c>
       <c r="J99" s="29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K99" s="122" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26380,7 +26271,7 @@
         <v>86</v>
       </c>
       <c r="C100" s="29" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D100" s="110" t="n">
         <v>0.187</v>
@@ -26401,10 +26292,10 @@
         <v>0.187</v>
       </c>
       <c r="J100" s="29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K100" s="122" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26416,7 +26307,7 @@
         <v>96</v>
       </c>
       <c r="C101" s="29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D101" s="110" t="n">
         <v>0.08</v>
@@ -26437,7 +26328,7 @@
         <v>0.08</v>
       </c>
       <c r="J101" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K101" s="122"/>
     </row>
@@ -26447,10 +26338,10 @@
         <v>csir_2019</v>
       </c>
       <c r="B102" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C102" s="29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D102" s="110" t="n">
         <v>0.08</v>
@@ -26471,10 +26362,10 @@
         <v>0.08</v>
       </c>
       <c r="J102" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K102" s="122" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26483,10 +26374,10 @@
         <v>csir_2019</v>
       </c>
       <c r="B103" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C103" s="29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D103" s="110" t="n">
         <v>0.08</v>
@@ -26507,10 +26398,10 @@
         <v>0.08</v>
       </c>
       <c r="J103" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K103" s="122" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26519,10 +26410,10 @@
         <v>csir_2019</v>
       </c>
       <c r="B104" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="C104" s="29" t="s">
         <v>221</v>
-      </c>
-      <c r="C104" s="29" t="s">
-        <v>222</v>
       </c>
       <c r="D104" s="112" t="n">
         <v>0.89</v>
@@ -26543,10 +26434,10 @@
         <v>0.89</v>
       </c>
       <c r="J104" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K104" s="122" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26558,7 +26449,7 @@
         <v>91</v>
       </c>
       <c r="C105" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D105" s="112" t="n">
         <v>0.468</v>
@@ -26579,10 +26470,10 @@
         <v>0.468</v>
       </c>
       <c r="J105" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K105" s="122" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26594,7 +26485,7 @@
         <v>199</v>
       </c>
       <c r="C106" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D106" s="112" t="n">
         <v>0.49</v>
@@ -26615,10 +26506,10 @@
         <v>0.49</v>
       </c>
       <c r="J106" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K106" s="122" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26630,7 +26521,7 @@
         <v>41</v>
       </c>
       <c r="C107" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D107" s="112" t="n">
         <v>0.37</v>
@@ -26651,10 +26542,10 @@
         <v>0.37</v>
       </c>
       <c r="J107" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K107" s="122" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26666,7 +26557,7 @@
         <v>106</v>
       </c>
       <c r="C108" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D108" s="112" t="n">
         <v>1</v>
@@ -26687,10 +26578,10 @@
         <v>1</v>
       </c>
       <c r="J108" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K108" s="122" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26702,7 +26593,7 @@
         <v>72</v>
       </c>
       <c r="C109" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D109" s="112" t="n">
         <v>0.393</v>
@@ -26723,10 +26614,10 @@
         <v>0.393</v>
       </c>
       <c r="J109" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K109" s="122" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26735,10 +26626,10 @@
         <v>csir_2019</v>
       </c>
       <c r="B110" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C110" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D110" s="112" t="n">
         <v>0.239</v>
@@ -26759,10 +26650,10 @@
         <v>0.239</v>
       </c>
       <c r="J110" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K110" s="122" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26774,7 +26665,7 @@
         <v>69</v>
       </c>
       <c r="C111" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D111" s="112" t="n">
         <v>0.9</v>
@@ -26795,10 +26686,10 @@
         <v>0.9</v>
       </c>
       <c r="J111" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K111" s="122" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26810,7 +26701,7 @@
         <v>63</v>
       </c>
       <c r="C112" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D112" s="112" t="n">
         <v>0.337</v>
@@ -26831,10 +26722,10 @@
         <v>0.337</v>
       </c>
       <c r="J112" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K112" s="122" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26846,7 +26737,7 @@
         <v>200</v>
       </c>
       <c r="C113" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D113" s="112" t="n">
         <v>0.31</v>
@@ -26867,10 +26758,10 @@
         <v>0.31</v>
       </c>
       <c r="J113" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K113" s="122" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26882,7 +26773,7 @@
         <v>65</v>
       </c>
       <c r="C114" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D114" s="112" t="n">
         <v>0.75</v>
@@ -26903,10 +26794,10 @@
         <v>0.75</v>
       </c>
       <c r="J114" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K114" s="122" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26915,10 +26806,10 @@
         <v>csir_2019</v>
       </c>
       <c r="B115" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C115" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D115" s="112" t="n">
         <v>0.9</v>
@@ -26939,10 +26830,10 @@
         <v>0.9</v>
       </c>
       <c r="J115" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K115" s="122" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26951,10 +26842,10 @@
         <v>csir_2019</v>
       </c>
       <c r="B116" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C116" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D116" s="110" t="n">
         <v>2.5</v>
@@ -26975,10 +26866,10 @@
         <v>2.5</v>
       </c>
       <c r="J116" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K116" s="122" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26990,7 +26881,7 @@
         <v>91</v>
       </c>
       <c r="C117" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D117" s="110" t="n">
         <v>2.6</v>
@@ -27011,10 +26902,10 @@
         <v>2.6</v>
       </c>
       <c r="J117" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K117" s="122" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27026,7 +26917,7 @@
         <v>199</v>
       </c>
       <c r="C118" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D118" s="110" t="n">
         <v>1.8</v>
@@ -27047,10 +26938,10 @@
         <v>1.8</v>
       </c>
       <c r="J118" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K118" s="122" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27062,7 +26953,7 @@
         <v>41</v>
       </c>
       <c r="C119" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D119" s="110" t="n">
         <v>2.6</v>
@@ -27083,10 +26974,10 @@
         <v>2.6</v>
       </c>
       <c r="J119" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K119" s="122" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27098,7 +26989,7 @@
         <v>106</v>
       </c>
       <c r="C120" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D120" s="110" t="n">
         <v>5</v>
@@ -27119,10 +27010,10 @@
         <v>5</v>
       </c>
       <c r="J120" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K120" s="122" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27134,7 +27025,7 @@
         <v>72</v>
       </c>
       <c r="C121" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D121" s="110" t="n">
         <v>2.6</v>
@@ -27155,10 +27046,10 @@
         <v>2.6</v>
       </c>
       <c r="J121" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K121" s="122" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27167,10 +27058,10 @@
         <v>csir_2019</v>
       </c>
       <c r="B122" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C122" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D122" s="110" t="n">
         <v>2</v>
@@ -27191,10 +27082,10 @@
         <v>2</v>
       </c>
       <c r="J122" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K122" s="122" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27203,10 +27094,10 @@
         <v>csir_2019</v>
       </c>
       <c r="B123" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C123" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D123" s="110" t="n">
         <v>2</v>
@@ -27227,10 +27118,10 @@
         <v>2</v>
       </c>
       <c r="J123" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K123" s="122" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27239,10 +27130,10 @@
         <v>csir_2019</v>
       </c>
       <c r="B124" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C124" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D124" s="110" t="n">
         <v>2</v>
@@ -27263,10 +27154,10 @@
         <v>2</v>
       </c>
       <c r="J124" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K124" s="122" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27275,10 +27166,10 @@
         <v>csir_2019</v>
       </c>
       <c r="B125" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C125" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D125" s="110" t="n">
         <v>2</v>
@@ -27299,10 +27190,10 @@
         <v>2</v>
       </c>
       <c r="J125" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K125" s="122" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27314,7 +27205,7 @@
         <v>69</v>
       </c>
       <c r="C126" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D126" s="110" t="n">
         <v>1</v>
@@ -27335,10 +27226,10 @@
         <v>1</v>
       </c>
       <c r="J126" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K126" s="122" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27350,7 +27241,7 @@
         <v>63</v>
       </c>
       <c r="C127" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D127" s="110" t="n">
         <v>1.6</v>
@@ -27371,7 +27262,7 @@
         <v>1.6</v>
       </c>
       <c r="J127" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K127" s="122"/>
     </row>
@@ -27384,7 +27275,7 @@
         <v>200</v>
       </c>
       <c r="C128" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D128" s="110" t="n">
         <v>2</v>
@@ -27405,10 +27296,10 @@
         <v>2</v>
       </c>
       <c r="J128" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K128" s="122" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27420,7 +27311,7 @@
         <v>61</v>
       </c>
       <c r="C129" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D129" s="110" t="n">
         <v>4</v>
@@ -27441,10 +27332,10 @@
         <v>4</v>
       </c>
       <c r="J129" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K129" s="122" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27456,7 +27347,7 @@
         <v>65</v>
       </c>
       <c r="C130" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D130" s="110" t="n">
         <v>1</v>
@@ -27477,10 +27368,10 @@
         <v>1</v>
       </c>
       <c r="J130" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K130" s="122" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27489,10 +27380,10 @@
         <v>csir_2019</v>
       </c>
       <c r="B131" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="C131" s="29" t="s">
         <v>224</v>
-      </c>
-      <c r="C131" s="29" t="s">
-        <v>225</v>
       </c>
       <c r="D131" s="110" t="n">
         <v>2</v>
@@ -27513,10 +27404,10 @@
         <v>2</v>
       </c>
       <c r="J131" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K131" s="122" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27528,7 +27419,7 @@
         <v>96</v>
       </c>
       <c r="C132" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D132" s="110" t="n">
         <v>2</v>
@@ -27549,10 +27440,10 @@
         <v>2</v>
       </c>
       <c r="J132" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K132" s="122" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27561,10 +27452,10 @@
         <v>csir_2019</v>
       </c>
       <c r="B133" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C133" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D133" s="110" t="n">
         <v>2</v>
@@ -27585,10 +27476,10 @@
         <v>2</v>
       </c>
       <c r="J133" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K133" s="122" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27597,10 +27488,10 @@
         <v>csir_2019</v>
       </c>
       <c r="B134" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C134" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D134" s="110" t="n">
         <v>2</v>
@@ -27621,10 +27512,10 @@
         <v>2</v>
       </c>
       <c r="J134" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K134" s="122" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27636,7 +27527,7 @@
         <v>91</v>
       </c>
       <c r="C135" s="29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D135" s="110"/>
       <c r="E135" s="110"/>
@@ -27645,10 +27536,10 @@
       <c r="H135" s="110"/>
       <c r="I135" s="110"/>
       <c r="J135" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K135" s="122" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27660,7 +27551,7 @@
         <v>41</v>
       </c>
       <c r="C136" s="29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D136" s="110" t="n">
         <v>98</v>
@@ -27681,10 +27572,10 @@
         <v>98</v>
       </c>
       <c r="J136" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K136" s="122" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27696,7 +27587,7 @@
         <v>106</v>
       </c>
       <c r="C137" s="29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D137" s="110" t="n">
         <v>50</v>
@@ -27717,10 +27608,10 @@
         <v>50</v>
       </c>
       <c r="J137" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K137" s="122" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27732,7 +27623,7 @@
         <v>72</v>
       </c>
       <c r="C138" s="29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D138" s="110" t="n">
         <v>900</v>
@@ -27753,10 +27644,10 @@
         <v>900</v>
       </c>
       <c r="J138" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K138" s="122" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27768,7 +27659,7 @@
         <v>86</v>
       </c>
       <c r="C139" s="29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D139" s="110" t="n">
         <v>540</v>
@@ -27789,10 +27680,10 @@
         <v>540</v>
       </c>
       <c r="J139" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K139" s="122" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27804,7 +27695,7 @@
         <v>63</v>
       </c>
       <c r="C140" s="29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D140" s="110" t="n">
         <v>29</v>
@@ -27825,10 +27716,10 @@
         <v>29</v>
       </c>
       <c r="J140" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K140" s="122" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27837,10 +27728,10 @@
         <v>csir_2019</v>
       </c>
       <c r="B141" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C141" s="29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D141" s="110"/>
       <c r="E141" s="110"/>
@@ -27849,10 +27740,10 @@
       <c r="H141" s="110"/>
       <c r="I141" s="110"/>
       <c r="J141" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K141" s="122" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27861,10 +27752,10 @@
         <v>csir_2019</v>
       </c>
       <c r="B142" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C142" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D142" s="110" t="n">
         <v>7872.745639</v>
@@ -27885,7 +27776,7 @@
         <v>4945.129802</v>
       </c>
       <c r="J142" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K142" s="122"/>
     </row>
@@ -27895,31 +27786,31 @@
         <v>csir_2019</v>
       </c>
       <c r="B143" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="C143" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="D143" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="E143" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="F143" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G143" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H143" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" s="29" t="s">
         <v>236</v>
-      </c>
-      <c r="C143" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="D143" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="E143" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="F143" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="G143" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="H143" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" s="29" t="s">
-        <v>237</v>
       </c>
       <c r="K143" s="122"/>
     </row>
@@ -27932,7 +27823,7 @@
         <v>91</v>
       </c>
       <c r="C144" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D144" s="110" t="n">
         <v>20232.73107</v>
@@ -27953,7 +27844,7 @@
         <v>20232.73107</v>
       </c>
       <c r="J144" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K144" s="122"/>
     </row>
@@ -27966,7 +27857,7 @@
         <v>199</v>
       </c>
       <c r="C145" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D145" s="110" t="n">
         <v>12199</v>
@@ -27987,7 +27878,7 @@
         <v>12199</v>
       </c>
       <c r="J145" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K145" s="122"/>
     </row>
@@ -28000,7 +27891,7 @@
         <v>41</v>
       </c>
       <c r="C146" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D146" s="110" t="n">
         <v>48188</v>
@@ -28021,7 +27912,7 @@
         <v>48188</v>
       </c>
       <c r="J146" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K146" s="122"/>
     </row>
@@ -28034,7 +27925,7 @@
         <v>106</v>
       </c>
       <c r="C147" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D147" s="110"/>
       <c r="E147" s="110"/>
@@ -28043,7 +27934,7 @@
       <c r="H147" s="110"/>
       <c r="I147" s="110"/>
       <c r="J147" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K147" s="122"/>
     </row>
@@ -28056,7 +27947,7 @@
         <v>72</v>
       </c>
       <c r="C148" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D148" s="110" t="n">
         <v>400</v>
@@ -28082,7 +27973,7 @@
         <v>236.196</v>
       </c>
       <c r="J148" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K148" s="122"/>
     </row>
@@ -28092,10 +27983,10 @@
         <v>csir_2019</v>
       </c>
       <c r="B149" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C149" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D149" s="110" t="n">
         <v>6000</v>
@@ -28116,7 +28007,7 @@
         <v>6000</v>
       </c>
       <c r="J149" s="29" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K149" s="122"/>
     </row>
@@ -28126,10 +28017,10 @@
         <v>csir_2019</v>
       </c>
       <c r="B150" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C150" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D150" s="110"/>
       <c r="E150" s="110"/>
@@ -28138,7 +28029,7 @@
       <c r="H150" s="110"/>
       <c r="I150" s="110"/>
       <c r="J150" s="29" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K150" s="122"/>
     </row>
@@ -28148,10 +28039,10 @@
         <v>csir_2019</v>
       </c>
       <c r="B151" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C151" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D151" s="110" t="n">
         <v>6000</v>
@@ -28172,7 +28063,7 @@
         <v>6000</v>
       </c>
       <c r="J151" s="29" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K151" s="122"/>
     </row>
@@ -28182,10 +28073,10 @@
         <v>csir_2019</v>
       </c>
       <c r="B152" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C152" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D152" s="110"/>
       <c r="E152" s="110"/>
@@ -28194,7 +28085,7 @@
       <c r="H152" s="110"/>
       <c r="I152" s="110"/>
       <c r="J152" s="29" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K152" s="122"/>
     </row>
@@ -28207,7 +28098,7 @@
         <v>69</v>
       </c>
       <c r="C153" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D153" s="110" t="n">
         <v>2000</v>
@@ -28228,7 +28119,7 @@
         <v>2000</v>
       </c>
       <c r="J153" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K153" s="122"/>
     </row>
@@ -28241,7 +28132,7 @@
         <v>63</v>
       </c>
       <c r="C154" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D154" s="110" t="n">
         <v>94326.65644</v>
@@ -28262,7 +28153,7 @@
         <v>94326.65644</v>
       </c>
       <c r="J154" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K154" s="122"/>
     </row>
@@ -28275,7 +28166,7 @@
         <v>200</v>
       </c>
       <c r="C155" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D155" s="110" t="n">
         <v>10754</v>
@@ -28296,7 +28187,7 @@
         <v>10754</v>
       </c>
       <c r="J155" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K155" s="122"/>
     </row>
@@ -28309,7 +28200,7 @@
         <v>61</v>
       </c>
       <c r="C156" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D156" s="110" t="n">
         <v>13131</v>
@@ -28330,7 +28221,7 @@
         <v>9238</v>
       </c>
       <c r="J156" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K156" s="122"/>
     </row>
@@ -28343,7 +28234,7 @@
         <v>65</v>
       </c>
       <c r="C157" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D157" s="110" t="n">
         <v>2000</v>
@@ -28364,7 +28255,7 @@
         <v>2000</v>
       </c>
       <c r="J157" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K157" s="122"/>
     </row>
@@ -28374,10 +28265,10 @@
         <v>csir_2019</v>
       </c>
       <c r="B158" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C158" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D158" s="110" t="n">
         <v>3000</v>
@@ -28398,7 +28289,7 @@
         <v>3000</v>
       </c>
       <c r="J158" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K158" s="122"/>
     </row>
@@ -28411,7 +28302,7 @@
         <v>96</v>
       </c>
       <c r="C159" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D159" s="110" t="n">
         <v>6671</v>
@@ -28432,7 +28323,7 @@
         <v>3238</v>
       </c>
       <c r="J159" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K159" s="122"/>
     </row>
@@ -28442,10 +28333,10 @@
         <v>csir_2019</v>
       </c>
       <c r="B160" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C160" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D160" s="110" t="n">
         <f aca="false">D159</f>
@@ -28472,7 +28363,7 @@
         <v>3238</v>
       </c>
       <c r="J160" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K160" s="122"/>
     </row>
@@ -28482,10 +28373,10 @@
         <v>csir_2019</v>
       </c>
       <c r="B161" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C161" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D161" s="110" t="n">
         <f aca="false">D159</f>
@@ -28512,7 +28403,7 @@
         <v>3238</v>
       </c>
       <c r="J161" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K161" s="122"/>
     </row>
@@ -28522,10 +28413,10 @@
         <v>csir_2019</v>
       </c>
       <c r="B162" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C162" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D162" s="110" t="n">
         <v>20</v>
@@ -28546,10 +28437,10 @@
         <v>20</v>
       </c>
       <c r="J162" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K162" s="122" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28558,10 +28449,10 @@
         <v>csir_2019</v>
       </c>
       <c r="B163" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C163" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D163" s="110" t="n">
         <v>20</v>
@@ -28582,10 +28473,10 @@
         <v>20</v>
       </c>
       <c r="J163" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K163" s="122" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28597,7 +28488,7 @@
         <v>91</v>
       </c>
       <c r="C164" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D164" s="110"/>
       <c r="E164" s="110"/>
@@ -28606,10 +28497,10 @@
       <c r="H164" s="110"/>
       <c r="I164" s="110"/>
       <c r="J164" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K164" s="122" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28621,7 +28512,7 @@
         <v>199</v>
       </c>
       <c r="C165" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D165" s="110" t="n">
         <v>30</v>
@@ -28642,10 +28533,10 @@
         <v>30</v>
       </c>
       <c r="J165" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K165" s="122" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28657,7 +28548,7 @@
         <v>41</v>
       </c>
       <c r="C166" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D166" s="110" t="n">
         <v>30</v>
@@ -28678,10 +28569,10 @@
         <v>30</v>
       </c>
       <c r="J166" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K166" s="122" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28693,7 +28584,7 @@
         <v>106</v>
       </c>
       <c r="C167" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D167" s="110" t="n">
         <v>30</v>
@@ -28714,10 +28605,10 @@
         <v>30</v>
       </c>
       <c r="J167" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K167" s="122" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28729,7 +28620,7 @@
         <v>72</v>
       </c>
       <c r="C168" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D168" s="110"/>
       <c r="E168" s="110"/>
@@ -28738,10 +28629,10 @@
       <c r="H168" s="110"/>
       <c r="I168" s="110"/>
       <c r="J168" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K168" s="122" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28750,10 +28641,10 @@
         <v>csir_2019</v>
       </c>
       <c r="B169" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C169" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D169" s="110" t="n">
         <v>40</v>
@@ -28774,10 +28665,10 @@
         <v>40</v>
       </c>
       <c r="J169" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K169" s="122" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28786,10 +28677,10 @@
         <v>csir_2019</v>
       </c>
       <c r="B170" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C170" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D170" s="110" t="n">
         <v>40</v>
@@ -28810,10 +28701,10 @@
         <v>40</v>
       </c>
       <c r="J170" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K170" s="122" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28822,10 +28713,10 @@
         <v>csir_2019</v>
       </c>
       <c r="B171" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C171" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D171" s="110" t="n">
         <v>40</v>
@@ -28846,10 +28737,10 @@
         <v>40</v>
       </c>
       <c r="J171" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K171" s="122" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28858,10 +28749,10 @@
         <v>csir_2019</v>
       </c>
       <c r="B172" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C172" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D172" s="110" t="n">
         <v>40</v>
@@ -28882,10 +28773,10 @@
         <v>40</v>
       </c>
       <c r="J172" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K172" s="122" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28897,7 +28788,7 @@
         <v>69</v>
       </c>
       <c r="C173" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D173" s="110" t="n">
         <v>80</v>
@@ -28918,10 +28809,10 @@
         <v>80</v>
       </c>
       <c r="J173" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K173" s="122" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28933,7 +28824,7 @@
         <v>63</v>
       </c>
       <c r="C174" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D174" s="110" t="n">
         <v>60</v>
@@ -28954,10 +28845,10 @@
         <v>60</v>
       </c>
       <c r="J174" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K174" s="122" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28969,7 +28860,7 @@
         <v>200</v>
       </c>
       <c r="C175" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D175" s="110" t="n">
         <v>30</v>
@@ -28990,10 +28881,10 @@
         <v>30</v>
       </c>
       <c r="J175" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K175" s="122" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29005,7 +28896,7 @@
         <v>61</v>
       </c>
       <c r="C176" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D176" s="110" t="n">
         <v>20</v>
@@ -29026,10 +28917,10 @@
         <v>20</v>
       </c>
       <c r="J176" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K176" s="122" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29041,7 +28932,7 @@
         <v>65</v>
       </c>
       <c r="C177" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D177" s="110" t="n">
         <v>80</v>
@@ -29062,10 +28953,10 @@
         <v>80</v>
       </c>
       <c r="J177" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K177" s="122" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29074,10 +28965,10 @@
         <v>csir_2019</v>
       </c>
       <c r="B178" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C178" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D178" s="110" t="n">
         <v>80</v>
@@ -29098,10 +28989,10 @@
         <v>80</v>
       </c>
       <c r="J178" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K178" s="122" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29113,7 +29004,7 @@
         <v>96</v>
       </c>
       <c r="C179" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D179" s="110" t="n">
         <v>25</v>
@@ -29134,10 +29025,10 @@
         <v>25</v>
       </c>
       <c r="J179" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K179" s="122" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29146,10 +29037,10 @@
         <v>csir_2019</v>
       </c>
       <c r="B180" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C180" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D180" s="110" t="n">
         <v>25</v>
@@ -29170,10 +29061,10 @@
         <v>25</v>
       </c>
       <c r="J180" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K180" s="122" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29182,10 +29073,10 @@
         <v>csir_2019</v>
       </c>
       <c r="B181" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C181" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D181" s="110" t="n">
         <v>25</v>
@@ -29206,10 +29097,10 @@
         <v>25</v>
       </c>
       <c r="J181" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K181" s="122" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29221,7 +29112,7 @@
         <v>199</v>
       </c>
       <c r="C182" s="29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D182" s="110" t="n">
         <v>22</v>
@@ -29242,10 +29133,10 @@
         <v>22</v>
       </c>
       <c r="J182" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K182" s="122" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29257,7 +29148,7 @@
         <v>41</v>
       </c>
       <c r="C183" s="29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D183" s="110" t="n">
         <v>80</v>
@@ -29278,10 +29169,10 @@
         <v>80</v>
       </c>
       <c r="J183" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K183" s="122" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29293,31 +29184,31 @@
         <v>106</v>
       </c>
       <c r="C184" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="D184" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="E184" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="F184" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G184" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H184" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" s="29" t="s">
         <v>242</v>
       </c>
-      <c r="D184" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="E184" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="F184" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="G184" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="H184" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" s="29" t="s">
-        <v>243</v>
-      </c>
       <c r="K184" s="122" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29329,7 +29220,7 @@
         <v>72</v>
       </c>
       <c r="C185" s="29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D185" s="110" t="n">
         <v>3</v>
@@ -29350,10 +29241,10 @@
         <v>3</v>
       </c>
       <c r="J185" s="29" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K185" s="122" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29365,7 +29256,7 @@
         <v>63</v>
       </c>
       <c r="C186" s="29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D186" s="110" t="n">
         <v>37</v>
@@ -29386,10 +29277,10 @@
         <v>37</v>
       </c>
       <c r="J186" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K186" s="122" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29401,7 +29292,7 @@
         <v>200</v>
       </c>
       <c r="C187" s="29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D187" s="110" t="n">
         <v>2.4</v>
@@ -29422,10 +29313,10 @@
         <v>2.4</v>
       </c>
       <c r="J187" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K187" s="122" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29437,7 +29328,7 @@
         <v>61</v>
       </c>
       <c r="C188" s="29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D188" s="110" t="n">
         <v>0.02</v>
@@ -29458,10 +29349,10 @@
         <v>0.02</v>
       </c>
       <c r="J188" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K188" s="122" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29473,7 +29364,7 @@
         <v>96</v>
       </c>
       <c r="C189" s="116" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D189" s="123" t="n">
         <v>0.01</v>
@@ -29494,10 +29385,10 @@
         <v>0.01</v>
       </c>
       <c r="J189" s="116" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K189" s="124" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29508,7 +29399,7 @@
         <v>41</v>
       </c>
       <c r="C190" s="119" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D190" s="120" t="n">
         <v>0.354</v>
@@ -29529,10 +29420,10 @@
         <v>0.354</v>
       </c>
       <c r="J190" s="119" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K190" s="121" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29544,7 +29435,7 @@
         <v>106</v>
       </c>
       <c r="C191" s="29" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D191" s="110" t="n">
         <v>0</v>
@@ -29565,10 +29456,10 @@
         <v>0</v>
       </c>
       <c r="J191" s="29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K191" s="122" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29580,7 +29471,7 @@
         <v>72</v>
       </c>
       <c r="C192" s="29" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D192" s="110" t="n">
         <v>0.248</v>
@@ -29601,10 +29492,10 @@
         <v>0.248</v>
       </c>
       <c r="J192" s="29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K192" s="122" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29616,7 +29507,7 @@
         <v>86</v>
       </c>
       <c r="C193" s="29" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D193" s="110" t="n">
         <v>0.187</v>
@@ -29637,10 +29528,10 @@
         <v>0.187</v>
       </c>
       <c r="J193" s="29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K193" s="122" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29652,7 +29543,7 @@
         <v>96</v>
       </c>
       <c r="C194" s="29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D194" s="110" t="n">
         <v>0.08</v>
@@ -29673,7 +29564,7 @@
         <v>0.08</v>
       </c>
       <c r="J194" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K194" s="122"/>
     </row>
@@ -29683,10 +29574,10 @@
         <v>irp_2019</v>
       </c>
       <c r="B195" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C195" s="29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D195" s="110" t="n">
         <v>0.08</v>
@@ -29707,10 +29598,10 @@
         <v>0.08</v>
       </c>
       <c r="J195" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K195" s="122" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29719,10 +29610,10 @@
         <v>irp_2019</v>
       </c>
       <c r="B196" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C196" s="29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D196" s="110" t="n">
         <v>0.08</v>
@@ -29743,10 +29634,10 @@
         <v>0.08</v>
       </c>
       <c r="J196" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K196" s="122" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29755,10 +29646,10 @@
         <v>irp_2019</v>
       </c>
       <c r="B197" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="C197" s="29" t="s">
         <v>221</v>
-      </c>
-      <c r="C197" s="29" t="s">
-        <v>222</v>
       </c>
       <c r="D197" s="112" t="n">
         <v>0.89</v>
@@ -29779,10 +29670,10 @@
         <v>0.89</v>
       </c>
       <c r="J197" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K197" s="122" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29794,7 +29685,7 @@
         <v>91</v>
       </c>
       <c r="C198" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D198" s="112" t="n">
         <v>0.468</v>
@@ -29815,10 +29706,10 @@
         <v>0.468</v>
       </c>
       <c r="J198" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K198" s="122" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29830,7 +29721,7 @@
         <v>199</v>
       </c>
       <c r="C199" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D199" s="112" t="n">
         <v>0.49</v>
@@ -29851,10 +29742,10 @@
         <v>0.49</v>
       </c>
       <c r="J199" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K199" s="122" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29866,7 +29757,7 @@
         <v>41</v>
       </c>
       <c r="C200" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D200" s="112" t="n">
         <v>0.37</v>
@@ -29887,10 +29778,10 @@
         <v>0.37</v>
       </c>
       <c r="J200" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K200" s="122" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29902,7 +29793,7 @@
         <v>106</v>
       </c>
       <c r="C201" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D201" s="112" t="n">
         <v>1</v>
@@ -29923,10 +29814,10 @@
         <v>1</v>
       </c>
       <c r="J201" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K201" s="122" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29938,7 +29829,7 @@
         <v>72</v>
       </c>
       <c r="C202" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D202" s="112" t="n">
         <v>0.393</v>
@@ -29959,10 +29850,10 @@
         <v>0.393</v>
       </c>
       <c r="J202" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K202" s="122" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29971,10 +29862,10 @@
         <v>irp_2019</v>
       </c>
       <c r="B203" s="25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C203" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D203" s="112" t="n">
         <v>0.239</v>
@@ -29995,10 +29886,10 @@
         <v>0.239</v>
       </c>
       <c r="J203" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K203" s="122" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30010,7 +29901,7 @@
         <v>69</v>
       </c>
       <c r="C204" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D204" s="112" t="n">
         <v>0.9</v>
@@ -30031,10 +29922,10 @@
         <v>0.9</v>
       </c>
       <c r="J204" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K204" s="122" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30046,7 +29937,7 @@
         <v>63</v>
       </c>
       <c r="C205" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D205" s="112" t="n">
         <v>0.337</v>
@@ -30067,10 +29958,10 @@
         <v>0.337</v>
       </c>
       <c r="J205" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K205" s="122" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30082,7 +29973,7 @@
         <v>200</v>
       </c>
       <c r="C206" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D206" s="112" t="n">
         <v>0.31</v>
@@ -30103,10 +29994,10 @@
         <v>0.31</v>
       </c>
       <c r="J206" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K206" s="122" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30118,7 +30009,7 @@
         <v>65</v>
       </c>
       <c r="C207" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D207" s="112" t="n">
         <v>0.75</v>
@@ -30139,10 +30030,10 @@
         <v>0.75</v>
       </c>
       <c r="J207" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K207" s="122" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30151,10 +30042,10 @@
         <v>irp_2019</v>
       </c>
       <c r="B208" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C208" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D208" s="112" t="n">
         <v>0.9</v>
@@ -30175,10 +30066,10 @@
         <v>0.9</v>
       </c>
       <c r="J208" s="29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K208" s="122" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30187,10 +30078,10 @@
         <v>irp_2019</v>
       </c>
       <c r="B209" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C209" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D209" s="110" t="n">
         <v>2.5</v>
@@ -30211,10 +30102,10 @@
         <v>2.5</v>
       </c>
       <c r="J209" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K209" s="122" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30226,7 +30117,7 @@
         <v>91</v>
       </c>
       <c r="C210" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D210" s="110" t="n">
         <v>2.6</v>
@@ -30247,10 +30138,10 @@
         <v>2.6</v>
       </c>
       <c r="J210" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K210" s="122" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30262,7 +30153,7 @@
         <v>199</v>
       </c>
       <c r="C211" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D211" s="110" t="n">
         <v>1.8</v>
@@ -30283,10 +30174,10 @@
         <v>1.8</v>
       </c>
       <c r="J211" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K211" s="122" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30298,7 +30189,7 @@
         <v>41</v>
       </c>
       <c r="C212" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D212" s="110" t="n">
         <v>2.6</v>
@@ -30319,10 +30210,10 @@
         <v>2.6</v>
       </c>
       <c r="J212" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K212" s="122" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30334,7 +30225,7 @@
         <v>106</v>
       </c>
       <c r="C213" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D213" s="110" t="n">
         <v>5</v>
@@ -30355,10 +30246,10 @@
         <v>5</v>
       </c>
       <c r="J213" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K213" s="122" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30370,7 +30261,7 @@
         <v>72</v>
       </c>
       <c r="C214" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D214" s="110" t="n">
         <v>2.6</v>
@@ -30391,10 +30282,10 @@
         <v>2.6</v>
       </c>
       <c r="J214" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K214" s="122" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30403,10 +30294,10 @@
         <v>irp_2019</v>
       </c>
       <c r="B215" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C215" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D215" s="110" t="n">
         <v>2</v>
@@ -30427,10 +30318,10 @@
         <v>2</v>
       </c>
       <c r="J215" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K215" s="122" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30439,10 +30330,10 @@
         <v>irp_2019</v>
       </c>
       <c r="B216" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C216" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D216" s="110" t="n">
         <v>2</v>
@@ -30463,10 +30354,10 @@
         <v>2</v>
       </c>
       <c r="J216" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K216" s="122" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30475,10 +30366,10 @@
         <v>irp_2019</v>
       </c>
       <c r="B217" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C217" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D217" s="110" t="n">
         <v>2</v>
@@ -30499,10 +30390,10 @@
         <v>2</v>
       </c>
       <c r="J217" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K217" s="122" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30511,10 +30402,10 @@
         <v>irp_2019</v>
       </c>
       <c r="B218" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C218" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D218" s="110" t="n">
         <v>2</v>
@@ -30535,10 +30426,10 @@
         <v>2</v>
       </c>
       <c r="J218" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K218" s="122" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30550,7 +30441,7 @@
         <v>69</v>
       </c>
       <c r="C219" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D219" s="110" t="n">
         <v>1</v>
@@ -30571,10 +30462,10 @@
         <v>1</v>
       </c>
       <c r="J219" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K219" s="122" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30586,7 +30477,7 @@
         <v>63</v>
       </c>
       <c r="C220" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D220" s="110" t="n">
         <v>1.6</v>
@@ -30607,7 +30498,7 @@
         <v>1.6</v>
       </c>
       <c r="J220" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K220" s="122"/>
     </row>
@@ -30620,7 +30511,7 @@
         <v>200</v>
       </c>
       <c r="C221" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D221" s="110" t="n">
         <v>2</v>
@@ -30641,10 +30532,10 @@
         <v>2</v>
       </c>
       <c r="J221" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K221" s="122" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30656,7 +30547,7 @@
         <v>61</v>
       </c>
       <c r="C222" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D222" s="110" t="n">
         <v>4</v>
@@ -30677,10 +30568,10 @@
         <v>4</v>
       </c>
       <c r="J222" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K222" s="122" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30692,7 +30583,7 @@
         <v>65</v>
       </c>
       <c r="C223" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D223" s="110" t="n">
         <v>1</v>
@@ -30713,10 +30604,10 @@
         <v>1</v>
       </c>
       <c r="J223" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K223" s="122" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30725,10 +30616,10 @@
         <v>irp_2019</v>
       </c>
       <c r="B224" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="C224" s="29" t="s">
         <v>224</v>
-      </c>
-      <c r="C224" s="29" t="s">
-        <v>225</v>
       </c>
       <c r="D224" s="110" t="n">
         <v>2</v>
@@ -30749,10 +30640,10 @@
         <v>2</v>
       </c>
       <c r="J224" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K224" s="122" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30764,7 +30655,7 @@
         <v>96</v>
       </c>
       <c r="C225" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D225" s="110" t="n">
         <v>2</v>
@@ -30785,10 +30676,10 @@
         <v>2</v>
       </c>
       <c r="J225" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K225" s="122" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30797,10 +30688,10 @@
         <v>irp_2019</v>
       </c>
       <c r="B226" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C226" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D226" s="110" t="n">
         <v>2</v>
@@ -30821,10 +30712,10 @@
         <v>2</v>
       </c>
       <c r="J226" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K226" s="122" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30833,10 +30724,10 @@
         <v>irp_2019</v>
       </c>
       <c r="B227" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C227" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D227" s="110" t="n">
         <v>2</v>
@@ -30857,10 +30748,10 @@
         <v>2</v>
       </c>
       <c r="J227" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K227" s="122" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30872,7 +30763,7 @@
         <v>91</v>
       </c>
       <c r="C228" s="29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D228" s="110"/>
       <c r="E228" s="110"/>
@@ -30881,10 +30772,10 @@
       <c r="H228" s="110"/>
       <c r="I228" s="110"/>
       <c r="J228" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K228" s="122" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30896,7 +30787,7 @@
         <v>41</v>
       </c>
       <c r="C229" s="29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D229" s="110" t="n">
         <v>98</v>
@@ -30917,10 +30808,10 @@
         <v>98</v>
       </c>
       <c r="J229" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K229" s="122" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30932,7 +30823,7 @@
         <v>106</v>
       </c>
       <c r="C230" s="29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D230" s="110" t="n">
         <v>50</v>
@@ -30953,10 +30844,10 @@
         <v>50</v>
       </c>
       <c r="J230" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K230" s="122" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30968,7 +30859,7 @@
         <v>72</v>
       </c>
       <c r="C231" s="29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D231" s="110" t="n">
         <v>900</v>
@@ -30989,10 +30880,10 @@
         <v>900</v>
       </c>
       <c r="J231" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K231" s="122" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31004,7 +30895,7 @@
         <v>86</v>
       </c>
       <c r="C232" s="29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D232" s="110" t="n">
         <v>540</v>
@@ -31025,10 +30916,10 @@
         <v>540</v>
       </c>
       <c r="J232" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K232" s="122" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31040,7 +30931,7 @@
         <v>63</v>
       </c>
       <c r="C233" s="29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D233" s="110" t="n">
         <v>29</v>
@@ -31061,10 +30952,10 @@
         <v>29</v>
       </c>
       <c r="J233" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K233" s="122" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31073,10 +30964,10 @@
         <v>irp_2019</v>
       </c>
       <c r="B234" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C234" s="29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D234" s="110"/>
       <c r="E234" s="110"/>
@@ -31085,10 +30976,10 @@
       <c r="H234" s="110"/>
       <c r="I234" s="110"/>
       <c r="J234" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K234" s="122" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31097,10 +30988,10 @@
         <v>irp_2019</v>
       </c>
       <c r="B235" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C235" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D235" s="110" t="n">
         <v>21359.32962</v>
@@ -31121,7 +31012,7 @@
         <v>14144.11372</v>
       </c>
       <c r="J235" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K235" s="122"/>
     </row>
@@ -31131,31 +31022,31 @@
         <v>irp_2019</v>
       </c>
       <c r="B236" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="C236" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="D236" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="E236" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="F236" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G236" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H236" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" s="29" t="s">
         <v>236</v>
-      </c>
-      <c r="C236" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="D236" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="E236" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="F236" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="G236" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="H236" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J236" s="29" t="s">
-        <v>237</v>
       </c>
       <c r="K236" s="122"/>
     </row>
@@ -31168,7 +31059,7 @@
         <v>91</v>
       </c>
       <c r="C237" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D237" s="110" t="n">
         <v>20232.73107</v>
@@ -31189,7 +31080,7 @@
         <v>20232.73107</v>
       </c>
       <c r="J237" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K237" s="122"/>
     </row>
@@ -31202,7 +31093,7 @@
         <v>199</v>
       </c>
       <c r="C238" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D238" s="110" t="n">
         <v>12199</v>
@@ -31223,7 +31114,7 @@
         <v>12199</v>
       </c>
       <c r="J238" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K238" s="122"/>
     </row>
@@ -31236,7 +31127,7 @@
         <v>41</v>
       </c>
       <c r="C239" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D239" s="110" t="n">
         <v>48188</v>
@@ -31257,7 +31148,7 @@
         <v>48188</v>
       </c>
       <c r="J239" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K239" s="122"/>
     </row>
@@ -31270,7 +31161,7 @@
         <v>106</v>
       </c>
       <c r="C240" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D240" s="110"/>
       <c r="E240" s="110"/>
@@ -31279,7 +31170,7 @@
       <c r="H240" s="110"/>
       <c r="I240" s="110"/>
       <c r="J240" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K240" s="122"/>
     </row>
@@ -31292,7 +31183,7 @@
         <v>72</v>
       </c>
       <c r="C241" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D241" s="110" t="n">
         <v>400</v>
@@ -31318,7 +31209,7 @@
         <v>236.196</v>
       </c>
       <c r="J241" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K241" s="122"/>
     </row>
@@ -31328,10 +31219,10 @@
         <v>irp_2019</v>
       </c>
       <c r="B242" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C242" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D242" s="110" t="n">
         <v>6000</v>
@@ -31352,7 +31243,7 @@
         <v>6000</v>
       </c>
       <c r="J242" s="29" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K242" s="122"/>
     </row>
@@ -31362,10 +31253,10 @@
         <v>irp_2019</v>
       </c>
       <c r="B243" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C243" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D243" s="110"/>
       <c r="E243" s="110"/>
@@ -31374,7 +31265,7 @@
       <c r="H243" s="110"/>
       <c r="I243" s="110"/>
       <c r="J243" s="29" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K243" s="122"/>
     </row>
@@ -31384,10 +31275,10 @@
         <v>irp_2019</v>
       </c>
       <c r="B244" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C244" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D244" s="110" t="n">
         <v>6000</v>
@@ -31408,7 +31299,7 @@
         <v>6000</v>
       </c>
       <c r="J244" s="29" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K244" s="122"/>
     </row>
@@ -31418,10 +31309,10 @@
         <v>irp_2019</v>
       </c>
       <c r="B245" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C245" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D245" s="110"/>
       <c r="E245" s="110"/>
@@ -31430,7 +31321,7 @@
       <c r="H245" s="110"/>
       <c r="I245" s="110"/>
       <c r="J245" s="29" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K245" s="122"/>
     </row>
@@ -31443,7 +31334,7 @@
         <v>69</v>
       </c>
       <c r="C246" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D246" s="110" t="n">
         <v>2000</v>
@@ -31464,7 +31355,7 @@
         <v>2000</v>
       </c>
       <c r="J246" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K246" s="122"/>
     </row>
@@ -31477,7 +31368,7 @@
         <v>63</v>
       </c>
       <c r="C247" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D247" s="110" t="n">
         <v>94326.65644</v>
@@ -31498,7 +31389,7 @@
         <v>94326.65644</v>
       </c>
       <c r="J247" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K247" s="122"/>
     </row>
@@ -31511,7 +31402,7 @@
         <v>200</v>
       </c>
       <c r="C248" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D248" s="110" t="n">
         <v>10754</v>
@@ -31532,7 +31423,7 @@
         <v>10754</v>
       </c>
       <c r="J248" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K248" s="122"/>
     </row>
@@ -31545,7 +31436,7 @@
         <v>61</v>
       </c>
       <c r="C249" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D249" s="110" t="n">
         <v>14144</v>
@@ -31566,7 +31457,7 @@
         <v>13722</v>
       </c>
       <c r="J249" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K249" s="122"/>
     </row>
@@ -31579,7 +31470,7 @@
         <v>65</v>
       </c>
       <c r="C250" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D250" s="110" t="n">
         <v>2000</v>
@@ -31600,7 +31491,7 @@
         <v>2000</v>
       </c>
       <c r="J250" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K250" s="122"/>
     </row>
@@ -31610,10 +31501,10 @@
         <v>irp_2019</v>
       </c>
       <c r="B251" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C251" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D251" s="110" t="n">
         <v>3000</v>
@@ -31634,7 +31525,7 @@
         <v>3000</v>
       </c>
       <c r="J251" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K251" s="122"/>
     </row>
@@ -31647,7 +31538,7 @@
         <v>96</v>
       </c>
       <c r="C252" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D252" s="110" t="n">
         <v>10140</v>
@@ -31668,7 +31559,7 @@
         <v>8720</v>
       </c>
       <c r="J252" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K252" s="122"/>
     </row>
@@ -31678,10 +31569,10 @@
         <v>irp_2019</v>
       </c>
       <c r="B253" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C253" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D253" s="110" t="n">
         <f aca="false">D252</f>
@@ -31708,7 +31599,7 @@
         <v>8720</v>
       </c>
       <c r="J253" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K253" s="122"/>
     </row>
@@ -31718,10 +31609,10 @@
         <v>irp_2019</v>
       </c>
       <c r="B254" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C254" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D254" s="110" t="n">
         <f aca="false">D252</f>
@@ -31748,7 +31639,7 @@
         <v>8720</v>
       </c>
       <c r="J254" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K254" s="122"/>
     </row>
@@ -31758,10 +31649,10 @@
         <v>irp_2019</v>
       </c>
       <c r="B255" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C255" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D255" s="110" t="n">
         <v>20</v>
@@ -31782,10 +31673,10 @@
         <v>20</v>
       </c>
       <c r="J255" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K255" s="122" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31794,10 +31685,10 @@
         <v>irp_2019</v>
       </c>
       <c r="B256" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C256" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D256" s="110" t="n">
         <v>20</v>
@@ -31818,10 +31709,10 @@
         <v>20</v>
       </c>
       <c r="J256" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K256" s="122" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31833,7 +31724,7 @@
         <v>91</v>
       </c>
       <c r="C257" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D257" s="110"/>
       <c r="E257" s="110"/>
@@ -31842,10 +31733,10 @@
       <c r="H257" s="110"/>
       <c r="I257" s="110"/>
       <c r="J257" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K257" s="122" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31857,7 +31748,7 @@
         <v>199</v>
       </c>
       <c r="C258" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D258" s="110" t="n">
         <v>30</v>
@@ -31878,10 +31769,10 @@
         <v>30</v>
       </c>
       <c r="J258" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K258" s="122" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31893,7 +31784,7 @@
         <v>41</v>
       </c>
       <c r="C259" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D259" s="110" t="n">
         <v>30</v>
@@ -31914,10 +31805,10 @@
         <v>30</v>
       </c>
       <c r="J259" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K259" s="122" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31929,7 +31820,7 @@
         <v>106</v>
       </c>
       <c r="C260" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D260" s="110" t="n">
         <v>30</v>
@@ -31950,10 +31841,10 @@
         <v>30</v>
       </c>
       <c r="J260" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K260" s="122" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31965,7 +31856,7 @@
         <v>72</v>
       </c>
       <c r="C261" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D261" s="110"/>
       <c r="E261" s="110"/>
@@ -31974,10 +31865,10 @@
       <c r="H261" s="110"/>
       <c r="I261" s="110"/>
       <c r="J261" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K261" s="122" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31986,10 +31877,10 @@
         <v>irp_2019</v>
       </c>
       <c r="B262" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C262" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D262" s="110" t="n">
         <v>40</v>
@@ -32010,10 +31901,10 @@
         <v>40</v>
       </c>
       <c r="J262" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K262" s="122" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32022,10 +31913,10 @@
         <v>irp_2019</v>
       </c>
       <c r="B263" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C263" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D263" s="110" t="n">
         <v>40</v>
@@ -32046,10 +31937,10 @@
         <v>40</v>
       </c>
       <c r="J263" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K263" s="122" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32058,10 +31949,10 @@
         <v>irp_2019</v>
       </c>
       <c r="B264" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C264" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D264" s="110" t="n">
         <v>40</v>
@@ -32082,10 +31973,10 @@
         <v>40</v>
       </c>
       <c r="J264" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K264" s="122" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32094,10 +31985,10 @@
         <v>irp_2019</v>
       </c>
       <c r="B265" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C265" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D265" s="110" t="n">
         <v>40</v>
@@ -32118,10 +32009,10 @@
         <v>40</v>
       </c>
       <c r="J265" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K265" s="122" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32133,7 +32024,7 @@
         <v>69</v>
       </c>
       <c r="C266" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D266" s="110" t="n">
         <v>80</v>
@@ -32154,10 +32045,10 @@
         <v>80</v>
       </c>
       <c r="J266" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K266" s="122" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32169,7 +32060,7 @@
         <v>63</v>
       </c>
       <c r="C267" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D267" s="110" t="n">
         <v>60</v>
@@ -32190,10 +32081,10 @@
         <v>60</v>
       </c>
       <c r="J267" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K267" s="122" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32205,7 +32096,7 @@
         <v>200</v>
       </c>
       <c r="C268" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D268" s="110" t="n">
         <v>30</v>
@@ -32226,10 +32117,10 @@
         <v>30</v>
       </c>
       <c r="J268" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K268" s="122" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32241,7 +32132,7 @@
         <v>61</v>
       </c>
       <c r="C269" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D269" s="110" t="n">
         <v>20</v>
@@ -32262,10 +32153,10 @@
         <v>20</v>
       </c>
       <c r="J269" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K269" s="122" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32277,7 +32168,7 @@
         <v>65</v>
       </c>
       <c r="C270" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D270" s="110" t="n">
         <v>80</v>
@@ -32298,10 +32189,10 @@
         <v>80</v>
       </c>
       <c r="J270" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K270" s="122" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32310,10 +32201,10 @@
         <v>irp_2019</v>
       </c>
       <c r="B271" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C271" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D271" s="110" t="n">
         <v>80</v>
@@ -32334,10 +32225,10 @@
         <v>80</v>
       </c>
       <c r="J271" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K271" s="122" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32349,7 +32240,7 @@
         <v>96</v>
       </c>
       <c r="C272" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D272" s="110" t="n">
         <v>25</v>
@@ -32370,10 +32261,10 @@
         <v>25</v>
       </c>
       <c r="J272" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K272" s="122" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32382,10 +32273,10 @@
         <v>irp_2019</v>
       </c>
       <c r="B273" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C273" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D273" s="110" t="n">
         <v>25</v>
@@ -32406,10 +32297,10 @@
         <v>25</v>
       </c>
       <c r="J273" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K273" s="122" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32418,10 +32309,10 @@
         <v>irp_2019</v>
       </c>
       <c r="B274" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C274" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D274" s="110" t="n">
         <v>25</v>
@@ -32442,10 +32333,10 @@
         <v>25</v>
       </c>
       <c r="J274" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K274" s="122" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32457,7 +32348,7 @@
         <v>199</v>
       </c>
       <c r="C275" s="29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D275" s="110" t="n">
         <v>22</v>
@@ -32478,10 +32369,10 @@
         <v>22</v>
       </c>
       <c r="J275" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K275" s="122" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32493,7 +32384,7 @@
         <v>41</v>
       </c>
       <c r="C276" s="29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D276" s="110" t="n">
         <v>80</v>
@@ -32514,10 +32405,10 @@
         <v>80</v>
       </c>
       <c r="J276" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K276" s="122" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32529,31 +32420,31 @@
         <v>106</v>
       </c>
       <c r="C277" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="D277" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="E277" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="F277" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G277" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H277" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" s="110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J277" s="29" t="s">
         <v>242</v>
       </c>
-      <c r="D277" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="E277" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="F277" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="G277" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="H277" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" s="110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J277" s="29" t="s">
-        <v>243</v>
-      </c>
       <c r="K277" s="122" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32565,7 +32456,7 @@
         <v>72</v>
       </c>
       <c r="C278" s="29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D278" s="110" t="n">
         <v>3</v>
@@ -32586,10 +32477,10 @@
         <v>3</v>
       </c>
       <c r="J278" s="29" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K278" s="122" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32601,7 +32492,7 @@
         <v>63</v>
       </c>
       <c r="C279" s="29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D279" s="110" t="n">
         <v>37</v>
@@ -32622,10 +32513,10 @@
         <v>37</v>
       </c>
       <c r="J279" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K279" s="122" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32637,7 +32528,7 @@
         <v>200</v>
       </c>
       <c r="C280" s="29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D280" s="110" t="n">
         <v>2.4</v>
@@ -32658,10 +32549,10 @@
         <v>2.4</v>
       </c>
       <c r="J280" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K280" s="122" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32673,7 +32564,7 @@
         <v>61</v>
       </c>
       <c r="C281" s="29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D281" s="110" t="n">
         <v>0.02</v>
@@ -32694,10 +32585,10 @@
         <v>0.02</v>
       </c>
       <c r="J281" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K281" s="122" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32709,7 +32600,7 @@
         <v>96</v>
       </c>
       <c r="C282" s="116" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D282" s="123" t="n">
         <v>0.01</v>
@@ -32730,10 +32621,10 @@
         <v>0.01</v>
       </c>
       <c r="J282" s="116" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K282" s="124" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/data/model_file.xlsx
+++ b/data/model_file.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="model_setup" sheetId="1" state="visible" r:id="rId2"/>
@@ -2134,7 +2134,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21800,7 +21800,7 @@
   </sheetPr>
   <dimension ref="A1:AF1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
     </sheetView>
   </sheetViews>
@@ -23466,7 +23466,7 @@
   <dimension ref="A1:AQ53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25462,8 +25462,8 @@
   </sheetPr>
   <dimension ref="A1:L396"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E125" activeCellId="0" sqref="E125"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D383" activeCellId="0" sqref="D383"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -27895,7 +27895,7 @@
       </c>
       <c r="L96" s="123"/>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="4" t="s">
         <v>14</v>
       </c>
@@ -27931,7 +27931,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="49" t="str">
         <f aca="false">A97</f>
         <v>csir_ambitions_2019</v>
@@ -27968,7 +27968,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="49" t="str">
         <f aca="false">A98</f>
         <v>csir_ambitions_2019</v>
@@ -28005,7 +28005,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="49" t="str">
         <f aca="false">A99</f>
         <v>csir_ambitions_2019</v>
@@ -28042,7 +28042,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="49" t="str">
         <f aca="false">A100</f>
         <v>csir_ambitions_2019</v>
@@ -28077,7 +28077,7 @@
       </c>
       <c r="L101" s="127"/>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="49" t="str">
         <f aca="false">A101</f>
         <v>csir_ambitions_2019</v>
@@ -28114,7 +28114,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="49" t="str">
         <f aca="false">A102</f>
         <v>csir_ambitions_2019</v>
@@ -28188,7 +28188,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="49" t="str">
         <f aca="false">A104</f>
         <v>csir_ambitions_2019</v>
@@ -28225,7 +28225,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="49" t="str">
         <f aca="false">A105</f>
         <v>csir_ambitions_2019</v>
@@ -28262,7 +28262,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="49" t="str">
         <f aca="false">A106</f>
         <v>csir_ambitions_2019</v>
@@ -28299,7 +28299,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="49" t="str">
         <f aca="false">A107</f>
         <v>csir_ambitions_2019</v>
@@ -28336,7 +28336,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="49" t="str">
         <f aca="false">A108</f>
         <v>csir_ambitions_2019</v>
@@ -28373,7 +28373,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="49" t="str">
         <f aca="false">A109</f>
         <v>csir_ambitions_2019</v>
@@ -28410,7 +28410,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="49" t="str">
         <f aca="false">A110</f>
         <v>csir_ambitions_2019</v>
@@ -28447,7 +28447,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="49" t="str">
         <f aca="false">A111</f>
         <v>csir_ambitions_2019</v>
@@ -28484,7 +28484,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="49" t="str">
         <f aca="false">A112</f>
         <v>csir_ambitions_2019</v>
@@ -28521,7 +28521,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="49" t="str">
         <f aca="false">A113</f>
         <v>csir_ambitions_2019</v>
@@ -28558,7 +28558,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="49" t="str">
         <f aca="false">A114</f>
         <v>csir_ambitions_2019</v>
@@ -28640,7 +28640,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="49" t="str">
         <f aca="false">A116</f>
         <v>csir_ambitions_2019</v>
@@ -28679,7 +28679,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="49" t="str">
         <f aca="false">A117</f>
         <v>csir_ambitions_2019</v>
@@ -28718,7 +28718,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="49" t="str">
         <f aca="false">A118</f>
         <v>csir_ambitions_2019</v>
@@ -28757,7 +28757,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="49" t="str">
         <f aca="false">A119</f>
         <v>csir_ambitions_2019</v>
@@ -28796,7 +28796,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="49" t="str">
         <f aca="false">A120</f>
         <v>csir_ambitions_2019</v>
@@ -28835,7 +28835,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="49" t="str">
         <f aca="false">A121</f>
         <v>csir_ambitions_2019</v>
@@ -28874,7 +28874,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="49" t="str">
         <f aca="false">A122</f>
         <v>csir_ambitions_2019</v>
@@ -28913,7 +28913,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="49" t="str">
         <f aca="false">A123</f>
         <v>csir_ambitions_2019</v>
@@ -28952,7 +28952,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="49" t="str">
         <f aca="false">A124</f>
         <v>csir_ambitions_2019</v>
@@ -28991,7 +28991,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="49" t="str">
         <f aca="false">A125</f>
         <v>csir_ambitions_2019</v>
@@ -29030,7 +29030,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="49" t="str">
         <f aca="false">A126</f>
         <v>csir_ambitions_2019</v>
@@ -29067,7 +29067,7 @@
       </c>
       <c r="L127" s="127"/>
     </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="49" t="str">
         <f aca="false">A127</f>
         <v>csir_ambitions_2019</v>
@@ -29106,7 +29106,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="49" t="str">
         <f aca="false">A128</f>
         <v>csir_ambitions_2019</v>
@@ -29145,7 +29145,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="49" t="str">
         <f aca="false">A129</f>
         <v>csir_ambitions_2019</v>
@@ -29184,7 +29184,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="49" t="str">
         <f aca="false">A130</f>
         <v>csir_ambitions_2019</v>
@@ -29223,7 +29223,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="49" t="str">
         <f aca="false">A131</f>
         <v>csir_ambitions_2019</v>
@@ -29267,7 +29267,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="49" t="str">
         <f aca="false">A132</f>
         <v>csir_ambitions_2019</v>
@@ -29311,7 +29311,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="49" t="str">
         <f aca="false">A133</f>
         <v>csir_ambitions_2019</v>
@@ -29355,7 +29355,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="49" t="str">
         <f aca="false">A134</f>
         <v>csir_ambitions_2019</v>
@@ -29380,7 +29380,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="49" t="str">
         <f aca="false">A135</f>
         <v>csir_ambitions_2019</v>
@@ -29419,7 +29419,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="49" t="str">
         <f aca="false">A136</f>
         <v>csir_ambitions_2019</v>
@@ -29458,7 +29458,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="49" t="str">
         <f aca="false">A137</f>
         <v>csir_ambitions_2019</v>
@@ -29497,7 +29497,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="49" t="str">
         <f aca="false">A138</f>
         <v>csir_ambitions_2019</v>
@@ -29536,7 +29536,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="49" t="str">
         <f aca="false">A139</f>
         <v>csir_ambitions_2019</v>
@@ -29575,7 +29575,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="49" t="str">
         <f aca="false">A140</f>
         <v>csir_ambitions_2019</v>
@@ -29637,7 +29637,7 @@
       </c>
       <c r="L142" s="127"/>
     </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="49" t="str">
         <f aca="false">A142</f>
         <v>csir_ambitions_2019</v>
@@ -29674,7 +29674,7 @@
       </c>
       <c r="L143" s="127"/>
     </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="49" t="str">
         <f aca="false">A143</f>
         <v>csir_ambitions_2019</v>
@@ -29711,7 +29711,7 @@
       </c>
       <c r="L144" s="127"/>
     </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="49" t="str">
         <f aca="false">A144</f>
         <v>csir_ambitions_2019</v>
@@ -29748,7 +29748,7 @@
       </c>
       <c r="L145" s="127"/>
     </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="49" t="str">
         <f aca="false">A145</f>
         <v>csir_ambitions_2019</v>
@@ -29785,7 +29785,7 @@
       </c>
       <c r="L146" s="127"/>
     </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="49" t="str">
         <f aca="false">A146</f>
         <v>csir_ambitions_2019</v>
@@ -29808,7 +29808,7 @@
       </c>
       <c r="L147" s="127"/>
     </row>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="49" t="str">
         <f aca="false">A147</f>
         <v>csir_ambitions_2019</v>
@@ -29845,7 +29845,7 @@
       </c>
       <c r="L148" s="127"/>
     </row>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="49" t="str">
         <f aca="false">A148</f>
         <v>csir_ambitions_2019</v>
@@ -29882,7 +29882,7 @@
       </c>
       <c r="L149" s="127"/>
     </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="49" t="str">
         <f aca="false">A149</f>
         <v>csir_ambitions_2019</v>
@@ -29905,7 +29905,7 @@
       </c>
       <c r="L150" s="127"/>
     </row>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="49" t="str">
         <f aca="false">A150</f>
         <v>csir_ambitions_2019</v>
@@ -29942,7 +29942,7 @@
       </c>
       <c r="L151" s="127"/>
     </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="49" t="str">
         <f aca="false">A151</f>
         <v>csir_ambitions_2019</v>
@@ -29965,7 +29965,7 @@
       </c>
       <c r="L152" s="127"/>
     </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="49" t="str">
         <f aca="false">A152</f>
         <v>csir_ambitions_2019</v>
@@ -30002,7 +30002,7 @@
       </c>
       <c r="L153" s="127"/>
     </row>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="49" t="str">
         <f aca="false">A153</f>
         <v>csir_ambitions_2019</v>
@@ -30039,7 +30039,7 @@
       </c>
       <c r="L154" s="127"/>
     </row>
-    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="49" t="str">
         <f aca="false">A154</f>
         <v>csir_ambitions_2019</v>
@@ -30076,7 +30076,7 @@
       </c>
       <c r="L155" s="127"/>
     </row>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="49" t="str">
         <f aca="false">A155</f>
         <v>csir_ambitions_2019</v>
@@ -30113,7 +30113,7 @@
       </c>
       <c r="L156" s="127"/>
     </row>
-    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="49" t="str">
         <f aca="false">A156</f>
         <v>csir_ambitions_2019</v>
@@ -30150,7 +30150,7 @@
       </c>
       <c r="L157" s="127"/>
     </row>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="49" t="str">
         <f aca="false">A157</f>
         <v>csir_ambitions_2019</v>
@@ -30187,7 +30187,7 @@
       </c>
       <c r="L158" s="127"/>
     </row>
-    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="49" t="str">
         <f aca="false">A158</f>
         <v>csir_ambitions_2019</v>
@@ -30224,7 +30224,7 @@
       </c>
       <c r="L159" s="127"/>
     </row>
-    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="49" t="str">
         <f aca="false">A159</f>
         <v>csir_ambitions_2019</v>
@@ -30267,7 +30267,7 @@
       </c>
       <c r="L160" s="127"/>
     </row>
-    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="49" t="str">
         <f aca="false">A160</f>
         <v>csir_ambitions_2019</v>
@@ -30350,7 +30350,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="49" t="str">
         <f aca="false">A162</f>
         <v>csir_ambitions_2019</v>
@@ -30390,7 +30390,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="49" t="str">
         <f aca="false">A163</f>
         <v>csir_ambitions_2019</v>
@@ -30418,7 +30418,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="49" t="str">
         <f aca="false">A164</f>
         <v>csir_ambitions_2019</v>
@@ -30458,7 +30458,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="49" t="str">
         <f aca="false">A165</f>
         <v>csir_ambitions_2019</v>
@@ -30498,7 +30498,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="49" t="str">
         <f aca="false">A166</f>
         <v>csir_ambitions_2019</v>
@@ -30538,7 +30538,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="49" t="str">
         <f aca="false">A167</f>
         <v>csir_ambitions_2019</v>
@@ -30563,7 +30563,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="49" t="str">
         <f aca="false">A168</f>
         <v>csir_ambitions_2019</v>
@@ -30603,7 +30603,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="49" t="str">
         <f aca="false">A169</f>
         <v>csir_ambitions_2019</v>
@@ -30643,7 +30643,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="49" t="str">
         <f aca="false">A170</f>
         <v>csir_ambitions_2019</v>
@@ -30683,7 +30683,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="49" t="str">
         <f aca="false">A171</f>
         <v>csir_ambitions_2019</v>
@@ -30723,7 +30723,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="49" t="str">
         <f aca="false">A172</f>
         <v>csir_ambitions_2019</v>
@@ -30763,7 +30763,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="49" t="str">
         <f aca="false">A173</f>
         <v>csir_ambitions_2019</v>
@@ -30803,7 +30803,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="49" t="str">
         <f aca="false">A174</f>
         <v>csir_ambitions_2019</v>
@@ -30843,7 +30843,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="49" t="str">
         <f aca="false">A175</f>
         <v>csir_ambitions_2019</v>
@@ -30883,7 +30883,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="49" t="str">
         <f aca="false">A176</f>
         <v>csir_ambitions_2019</v>
@@ -30923,7 +30923,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="49" t="str">
         <f aca="false">A177</f>
         <v>csir_ambitions_2019</v>
@@ -30963,7 +30963,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="49" t="str">
         <f aca="false">A178</f>
         <v>csir_ambitions_2019</v>
@@ -31003,7 +31003,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="49" t="str">
         <f aca="false">A179</f>
         <v>csir_ambitions_2019</v>
@@ -31043,7 +31043,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="49" t="str">
         <f aca="false">A180</f>
         <v>csir_ambitions_2019</v>
@@ -31083,7 +31083,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="49" t="str">
         <f aca="false">A181</f>
         <v>csir_ambitions_2019</v>
@@ -31123,7 +31123,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="49" t="str">
         <f aca="false">A182</f>
         <v>csir_ambitions_2019</v>
@@ -31163,7 +31163,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="49" t="str">
         <f aca="false">A183</f>
         <v>csir_ambitions_2019</v>
@@ -31203,7 +31203,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="49" t="str">
         <f aca="false">A184</f>
         <v>csir_ambitions_2019</v>
@@ -31243,7 +31243,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="49" t="str">
         <f aca="false">A185</f>
         <v>csir_ambitions_2019</v>
@@ -31283,7 +31283,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="49" t="str">
         <f aca="false">A186</f>
         <v>csir_ambitions_2019</v>
@@ -31323,7 +31323,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="49" t="str">
         <f aca="false">A187</f>
         <v>csir_ambitions_2019</v>
@@ -31363,7 +31363,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="49" t="str">
         <f aca="false">A188</f>
         <v>csir_ambitions_2019</v>
@@ -34990,7 +34990,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="49" t="str">
         <f aca="false">A289</f>
         <v>csir_ambitions_2022</v>
@@ -35434,7 +35434,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="49" t="str">
         <f aca="false">A301</f>
         <v>csir_ambitions_2022</v>
@@ -35445,27 +35445,36 @@
       <c r="C302" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="D302" s="29"/>
-      <c r="E302" s="115" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F302" s="115" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G302" s="115" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H302" s="115" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="I302" s="115" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J302" s="115" t="n">
-        <v>2.5</v>
+      <c r="D302" s="128" t="n">
+        <f aca="false">106.5/87.9*D116</f>
+        <v>917.184300341297</v>
+      </c>
+      <c r="E302" s="128" t="n">
+        <f aca="false">D302</f>
+        <v>917.184300341297</v>
+      </c>
+      <c r="F302" s="128" t="n">
+        <f aca="false">E302</f>
+        <v>917.184300341297</v>
+      </c>
+      <c r="G302" s="128" t="n">
+        <f aca="false">F302</f>
+        <v>917.184300341297</v>
+      </c>
+      <c r="H302" s="128" t="n">
+        <f aca="false">G302</f>
+        <v>917.184300341297</v>
+      </c>
+      <c r="I302" s="128" t="n">
+        <f aca="false">H302</f>
+        <v>917.184300341297</v>
+      </c>
+      <c r="J302" s="128" t="n">
+        <f aca="false">I302</f>
+        <v>917.184300341297</v>
       </c>
       <c r="K302" s="29" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="L302" s="127" t="s">
         <v>260</v>
@@ -36370,7 +36379,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="328" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="49" t="str">
         <f aca="false">A327</f>
         <v>csir_ambitions_2022</v>
@@ -37250,7 +37259,7 @@
       </c>
       <c r="L347" s="127"/>
     </row>
-    <row r="348" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="49" t="str">
         <f aca="false">A347</f>
         <v>csir_ambitions_2022</v>
@@ -38423,6 +38432,12 @@
     <filterColumn colId="0">
       <filters>
         <filter val="csir_ambitions_2019"/>
+        <filter val="csir_ambitions_2022"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="1">
+      <filters>
+        <filter val="battery inverter"/>
       </filters>
     </filterColumn>
   </autoFilter>
